--- a/raw_data/20200818_saline/20200818_Sensor2_Test_93.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_93.xlsx
@@ -1,1414 +1,1830 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7E463E-8F65-4C4C-8DD5-1AF0B472A84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>83174.907915</v>
+        <v>83174.907915000003</v>
       </c>
       <c r="B2" s="1">
-        <v>23.104141</v>
+        <v>23.104140999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-303.590000</v>
+        <v>-303.58999999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>83184.940989</v>
+        <v>83184.940988999995</v>
       </c>
       <c r="G2" s="1">
         <v>23.106928</v>
       </c>
       <c r="H2" s="1">
-        <v>1262.570000</v>
+        <v>1262.57</v>
       </c>
       <c r="I2" s="1">
-        <v>-262.694000</v>
+        <v>-262.69400000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>83195.076735</v>
+        <v>83195.076734999995</v>
       </c>
       <c r="L2" s="1">
-        <v>23.109744</v>
+        <v>23.109743999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1297.510000</v>
+        <v>1297.51</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.378000</v>
+        <v>-200.37799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>83205.609777</v>
+        <v>83205.609777000005</v>
       </c>
       <c r="Q2" s="1">
         <v>23.112669</v>
       </c>
       <c r="R2" s="1">
-        <v>1309.230000</v>
+        <v>1309.23</v>
       </c>
       <c r="S2" s="1">
-        <v>-181.942000</v>
+        <v>-181.94200000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>83216.204820</v>
+        <v>83216.204819999999</v>
       </c>
       <c r="V2" s="1">
-        <v>23.115612</v>
+        <v>23.115611999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1322.130000</v>
+        <v>1322.13</v>
       </c>
       <c r="X2" s="1">
-        <v>-168.044000</v>
+        <v>-168.04400000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>83226.624279</v>
+        <v>83226.624278999996</v>
       </c>
       <c r="AA2" s="1">
-        <v>23.118507</v>
+        <v>23.118507000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1339.060000</v>
+        <v>1339.06</v>
       </c>
       <c r="AC2" s="1">
-        <v>-164.984000</v>
+        <v>-164.98400000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>83237.172201</v>
+        <v>83237.172200999994</v>
       </c>
       <c r="AF2" s="1">
         <v>23.121437</v>
       </c>
       <c r="AG2" s="1">
-        <v>1351.570000</v>
+        <v>1351.57</v>
       </c>
       <c r="AH2" s="1">
-        <v>-173.883000</v>
+        <v>-173.88300000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>83247.608026</v>
+        <v>83247.608026000002</v>
       </c>
       <c r="AK2" s="1">
         <v>23.124336</v>
       </c>
       <c r="AL2" s="1">
-        <v>1371.260000</v>
+        <v>1371.26</v>
       </c>
       <c r="AM2" s="1">
-        <v>-202.419000</v>
+        <v>-202.41900000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>83258.174828</v>
+        <v>83258.174828000003</v>
       </c>
       <c r="AP2" s="1">
         <v>23.127271</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AR2" s="1">
-        <v>-244.852000</v>
+        <v>-244.852</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>83269.830284</v>
+        <v>83269.830283999996</v>
       </c>
       <c r="AU2" s="1">
-        <v>23.130508</v>
+        <v>23.130507999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1415.450000</v>
+        <v>1415.45</v>
       </c>
       <c r="AW2" s="1">
-        <v>-303.225000</v>
+        <v>-303.22500000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>83280.929790</v>
+        <v>83280.929789999995</v>
       </c>
       <c r="AZ2" s="1">
         <v>23.133592</v>
       </c>
       <c r="BA2" s="1">
-        <v>1434.110000</v>
+        <v>1434.11</v>
       </c>
       <c r="BB2" s="1">
-        <v>-354.054000</v>
+        <v>-354.05399999999997</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>83291.871039</v>
+        <v>83291.871039000005</v>
       </c>
       <c r="BE2" s="1">
-        <v>23.136631</v>
+        <v>23.136631000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1517.430000</v>
+        <v>1517.43</v>
       </c>
       <c r="BG2" s="1">
-        <v>-595.976000</v>
+        <v>-595.976</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>83302.506721</v>
+        <v>83302.506720999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>23.139585</v>
       </c>
       <c r="BK2" s="1">
-        <v>1669.380000</v>
+        <v>1669.38</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1028.140000</v>
+        <v>-1028.1400000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>83313.605713</v>
+        <v>83313.605712999997</v>
       </c>
       <c r="BO2" s="1">
         <v>23.142668</v>
       </c>
       <c r="BP2" s="1">
-        <v>1958.790000</v>
+        <v>1958.79</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1774.070000</v>
+        <v>-1774.07</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>83325.113411</v>
+        <v>83325.113410999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>23.145865</v>
+        <v>23.145865000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>2336.870000</v>
+        <v>2336.87</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2635.160000</v>
+        <v>-2635.16</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>83335.834934</v>
+        <v>83335.834933999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>23.148843</v>
+        <v>23.148842999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2808.940000</v>
+        <v>2808.94</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3569.630000</v>
+        <v>-3569.63</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>83346.883782</v>
+        <v>83346.883782000004</v>
       </c>
       <c r="CD2" s="1">
-        <v>23.151912</v>
+        <v>23.151911999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4180.230000</v>
+        <v>4180.2299999999996</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5814.090000</v>
+        <v>-5814.09</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>83175.253657</v>
+        <v>83175.253656999994</v>
       </c>
       <c r="B3" s="1">
-        <v>23.104237</v>
+        <v>23.104237000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1237.460000</v>
+        <v>1237.46</v>
       </c>
       <c r="D3" s="1">
-        <v>-303.664000</v>
+        <v>-303.66399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>83185.362129</v>
+        <v>83185.362129000001</v>
       </c>
       <c r="G3" s="1">
-        <v>23.107045</v>
+        <v>23.107044999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1261.760000</v>
+        <v>1261.76</v>
       </c>
       <c r="I3" s="1">
-        <v>-262.599000</v>
+        <v>-262.59899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>83195.496846</v>
+        <v>83195.496845999995</v>
       </c>
       <c r="L3" s="1">
-        <v>23.109860</v>
+        <v>23.109860000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1297.480000</v>
+        <v>1297.48</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.185000</v>
+        <v>-200.185</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>83206.022481</v>
+        <v>83206.022481000007</v>
       </c>
       <c r="Q3" s="1">
-        <v>23.112784</v>
+        <v>23.112784000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1309.340000</v>
+        <v>1309.3399999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-181.864000</v>
+        <v>-181.864</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>83216.562931</v>
+        <v>83216.562930999993</v>
       </c>
       <c r="V3" s="1">
-        <v>23.115712</v>
+        <v>23.115711999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>1322.270000</v>
+        <v>1322.27</v>
       </c>
       <c r="X3" s="1">
-        <v>-167.857000</v>
+        <v>-167.857</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>83226.991813</v>
+        <v>83226.991813000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>23.118609</v>
+        <v>23.118608999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1338.930000</v>
+        <v>1338.93</v>
       </c>
       <c r="AC3" s="1">
-        <v>-165.007000</v>
+        <v>-165.00700000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>83237.544695</v>
+        <v>83237.544695000004</v>
       </c>
       <c r="AF3" s="1">
-        <v>23.121540</v>
+        <v>23.12154</v>
       </c>
       <c r="AG3" s="1">
-        <v>1351.550000</v>
+        <v>1351.55</v>
       </c>
       <c r="AH3" s="1">
-        <v>-173.838000</v>
+        <v>-173.83799999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>83247.992923</v>
+        <v>83247.992922999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>23.124442</v>
+        <v>23.124441999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="AM3" s="1">
-        <v>-202.400000</v>
+        <v>-202.4</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>83258.932683</v>
+        <v>83258.932683000006</v>
       </c>
       <c r="AP3" s="1">
         <v>23.127481</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AR3" s="1">
-        <v>-244.848000</v>
+        <v>-244.84800000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>83270.226588</v>
+        <v>83270.226588000005</v>
       </c>
       <c r="AU3" s="1">
-        <v>23.130618</v>
+        <v>23.130617999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1415.420000</v>
+        <v>1415.42</v>
       </c>
       <c r="AW3" s="1">
-        <v>-303.185000</v>
+        <v>-303.185</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>83281.320606</v>
+        <v>83281.320605999994</v>
       </c>
       <c r="AZ3" s="1">
-        <v>23.133700</v>
+        <v>23.133700000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1434.130000</v>
+        <v>1434.13</v>
       </c>
       <c r="BB3" s="1">
-        <v>-354.048000</v>
+        <v>-354.048</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>83292.232128</v>
+        <v>83292.232128000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>23.136731</v>
+        <v>23.136731000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1517.410000</v>
+        <v>1517.41</v>
       </c>
       <c r="BG3" s="1">
-        <v>-595.962000</v>
+        <v>-595.96199999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>83303.209057</v>
       </c>
       <c r="BJ3" s="1">
-        <v>23.139780</v>
+        <v>23.139779999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1669.320000</v>
+        <v>1669.32</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1028.220000</v>
+        <v>-1028.22</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>83314.334321</v>
+        <v>83314.334321000002</v>
       </c>
       <c r="BO3" s="1">
         <v>23.142871</v>
       </c>
       <c r="BP3" s="1">
-        <v>1958.600000</v>
+        <v>1958.6</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1774.490000</v>
+        <v>-1774.49</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>83325.279539</v>
+        <v>83325.279538999996</v>
       </c>
       <c r="BT3" s="1">
-        <v>23.145911</v>
+        <v>23.145911000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2336.240000</v>
+        <v>2336.2399999999998</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2635.370000</v>
+        <v>-2635.37</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>83336.013462</v>
+        <v>83336.013462000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>23.148893</v>
+        <v>23.148893000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2809.020000</v>
+        <v>2809.02</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3569.630000</v>
+        <v>-3569.63</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>83347.479478</v>
+        <v>83347.479477999994</v>
       </c>
       <c r="CD3" s="1">
-        <v>23.152078</v>
+        <v>23.152077999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4184.700000</v>
+        <v>4184.7</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5832.250000</v>
+        <v>-5832.25</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>83175.679231</v>
+        <v>83175.679231000002</v>
       </c>
       <c r="B4" s="1">
-        <v>23.104355</v>
+        <v>23.104355000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1237.560000</v>
+        <v>1237.56</v>
       </c>
       <c r="D4" s="1">
-        <v>-303.585000</v>
+        <v>-303.58499999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>83185.666140</v>
+        <v>83185.666140000001</v>
       </c>
       <c r="G4" s="1">
         <v>23.107129</v>
       </c>
       <c r="H4" s="1">
-        <v>1262.520000</v>
+        <v>1262.52</v>
       </c>
       <c r="I4" s="1">
-        <v>-262.056000</v>
+        <v>-262.05599999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>83195.863390</v>
+        <v>83195.863389999999</v>
       </c>
       <c r="L4" s="1">
-        <v>23.109962</v>
+        <v>23.109961999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1297.310000</v>
+        <v>1297.31</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.114000</v>
+        <v>-200.114</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>83206.371632</v>
+        <v>83206.371631999995</v>
       </c>
       <c r="Q4" s="1">
-        <v>23.112881</v>
+        <v>23.112881000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>1309.350000</v>
+        <v>1309.3499999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-182.002000</v>
+        <v>-182.00200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>83216.907155</v>
+        <v>83216.907154999994</v>
       </c>
       <c r="V4" s="1">
-        <v>23.115808</v>
+        <v>23.115808000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1322.240000</v>
+        <v>1322.24</v>
       </c>
       <c r="X4" s="1">
-        <v>-167.894000</v>
+        <v>-167.89400000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>83227.338517</v>
+        <v>83227.338516999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>23.118705</v>
+        <v>23.118704999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1339.090000</v>
+        <v>1339.09</v>
       </c>
       <c r="AC4" s="1">
-        <v>-164.987000</v>
+        <v>-164.98699999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>83238.235663</v>
+        <v>83238.235662999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>23.121732</v>
+        <v>23.121732000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1351.510000</v>
+        <v>1351.51</v>
       </c>
       <c r="AH4" s="1">
-        <v>-173.954000</v>
+        <v>-173.95400000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>83248.691300</v>
+        <v>83248.691300000006</v>
       </c>
       <c r="AK4" s="1">
-        <v>23.124636</v>
+        <v>23.124635999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="AM4" s="1">
-        <v>-202.447000</v>
+        <v>-202.447</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>83259.290794</v>
       </c>
       <c r="AP4" s="1">
-        <v>23.127581</v>
+        <v>23.127580999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1391.900000</v>
+        <v>1391.9</v>
       </c>
       <c r="AR4" s="1">
-        <v>-244.852000</v>
+        <v>-244.852</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>83270.586224</v>
+        <v>83270.586223999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>23.130718</v>
+        <v>23.130718000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1415.470000</v>
+        <v>1415.47</v>
       </c>
       <c r="AW4" s="1">
-        <v>-303.202000</v>
+        <v>-303.202</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>83281.684669</v>
+        <v>83281.684668999995</v>
       </c>
       <c r="AZ4" s="1">
-        <v>23.133801</v>
+        <v>23.133800999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1434.110000</v>
+        <v>1434.11</v>
       </c>
       <c r="BB4" s="1">
-        <v>-354.007000</v>
+        <v>-354.00700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>83292.912633</v>
       </c>
       <c r="BE4" s="1">
-        <v>23.136920</v>
+        <v>23.13692</v>
       </c>
       <c r="BF4" s="1">
-        <v>1517.430000</v>
+        <v>1517.43</v>
       </c>
       <c r="BG4" s="1">
-        <v>-595.982000</v>
+        <v>-595.98199999999997</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>83303.673808</v>
+        <v>83303.673808000007</v>
       </c>
       <c r="BJ4" s="1">
-        <v>23.139909</v>
+        <v>23.139908999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1669.360000</v>
+        <v>1669.36</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1028.130000</v>
+        <v>-1028.1300000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>83314.445921</v>
+        <v>83314.445921000006</v>
       </c>
       <c r="BO4" s="1">
-        <v>23.142902</v>
+        <v>23.142901999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1958.770000</v>
+        <v>1958.77</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1774.410000</v>
+        <v>-1774.41</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>83325.709074</v>
+        <v>83325.709073999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>23.146030</v>
+        <v>23.14603</v>
       </c>
       <c r="BU4" s="1">
-        <v>2335.970000</v>
+        <v>2335.9699999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2635.480000</v>
+        <v>-2635.48</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>83336.460395</v>
+        <v>83336.460395000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>23.149017</v>
+        <v>23.149017000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2808.910000</v>
+        <v>2808.91</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3569.580000</v>
+        <v>-3569.58</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>83348.020613</v>
+        <v>83348.020613000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>23.152228</v>
+        <v>23.152228000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4188.860000</v>
+        <v>4188.8599999999997</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5810.170000</v>
+        <v>-5810.17</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>83175.944056</v>
+        <v>83175.944055999993</v>
       </c>
       <c r="B5" s="1">
         <v>23.104429</v>
       </c>
       <c r="C5" s="1">
-        <v>1237.520000</v>
+        <v>1237.52</v>
       </c>
       <c r="D5" s="1">
-        <v>-303.483000</v>
+        <v>-303.483</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>83186.006891</v>
+        <v>83186.006890999997</v>
       </c>
       <c r="G5" s="1">
-        <v>23.107224</v>
+        <v>23.107223999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1262.710000</v>
+        <v>1262.71</v>
       </c>
       <c r="I5" s="1">
-        <v>-261.732000</v>
+        <v>-261.73200000000003</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>83196.204639</v>
+        <v>83196.204639000003</v>
       </c>
       <c r="L5" s="1">
-        <v>23.110057</v>
+        <v>23.110057000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1297.640000</v>
+        <v>1297.6400000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.091000</v>
+        <v>-200.09100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>83206.719328</v>
+        <v>83206.719328000006</v>
       </c>
       <c r="Q5" s="1">
-        <v>23.112978</v>
+        <v>23.112977999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1309.340000</v>
+        <v>1309.3399999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-181.952000</v>
+        <v>-181.952</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>83217.591137</v>
+        <v>83217.591136999996</v>
       </c>
       <c r="V5" s="1">
-        <v>23.115998</v>
+        <v>23.115998000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1322.350000</v>
+        <v>1322.35</v>
       </c>
       <c r="X5" s="1">
-        <v>-168.069000</v>
+        <v>-168.06899999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>83228.035395</v>
+        <v>83228.035394999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>23.118899</v>
+        <v>23.118898999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1339.210000</v>
+        <v>1339.21</v>
       </c>
       <c r="AC5" s="1">
-        <v>-164.966000</v>
+        <v>-164.96600000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>83238.584838</v>
+        <v>83238.584837999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>23.121829</v>
+        <v>23.121829000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1351.550000</v>
+        <v>1351.55</v>
       </c>
       <c r="AH5" s="1">
-        <v>-173.889000</v>
+        <v>-173.88900000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>83249.039512</v>
+        <v>83249.039512000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>23.124733</v>
+        <v>23.124732999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="AM5" s="1">
-        <v>-202.397000</v>
+        <v>-202.39699999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>83259.649898</v>
+        <v>83259.649898000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>23.127681</v>
+        <v>23.127680999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1391.840000</v>
+        <v>1391.84</v>
       </c>
       <c r="AR5" s="1">
-        <v>-244.842000</v>
+        <v>-244.84200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>83271.270667</v>
+        <v>83271.270667000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>23.130909</v>
+        <v>23.130908999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1415.420000</v>
+        <v>1415.42</v>
       </c>
       <c r="AW5" s="1">
-        <v>-303.203000</v>
+        <v>-303.20299999999997</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>83282.362700</v>
+        <v>83282.362699999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>23.133990</v>
+        <v>23.133990000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1434.090000</v>
+        <v>1434.09</v>
       </c>
       <c r="BB5" s="1">
-        <v>-353.995000</v>
+        <v>-353.995</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>83293.347597</v>
@@ -1417,709 +1833,709 @@
         <v>23.137041</v>
       </c>
       <c r="BF5" s="1">
-        <v>1517.400000</v>
+        <v>1517.4</v>
       </c>
       <c r="BG5" s="1">
-        <v>-595.966000</v>
+        <v>-595.96600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>83304.048783</v>
+        <v>83304.048783000006</v>
       </c>
       <c r="BJ5" s="1">
-        <v>23.140014</v>
+        <v>23.140014000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1669.330000</v>
+        <v>1669.33</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1028.240000</v>
+        <v>-1028.24</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>83314.867025</v>
       </c>
       <c r="BO5" s="1">
-        <v>23.143019</v>
+        <v>23.143018999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1958.500000</v>
+        <v>1958.5</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1774.410000</v>
+        <v>-1774.41</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>83326.122274</v>
+        <v>83326.122273999994</v>
       </c>
       <c r="BT5" s="1">
-        <v>23.146145</v>
+        <v>23.146145000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2335.760000</v>
+        <v>2335.7600000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2635.280000</v>
+        <v>-2635.28</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>83336.881501</v>
+        <v>83336.881500999996</v>
       </c>
       <c r="BY5" s="1">
         <v>23.149134</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2808.880000</v>
+        <v>2808.88</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3570.120000</v>
+        <v>-3570.12</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>83348.559268</v>
+        <v>83348.559267999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>23.152378</v>
+        <v>23.152377999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4175.080000</v>
+        <v>4175.08</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5825.950000</v>
+        <v>-5825.95</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>83176.288280</v>
+        <v>83176.288279999993</v>
       </c>
       <c r="B6" s="1">
-        <v>23.104525</v>
+        <v>23.104524999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>1237.280000</v>
+        <v>1237.28</v>
       </c>
       <c r="D6" s="1">
-        <v>-303.885000</v>
+        <v>-303.88499999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>83186.352107</v>
+        <v>83186.352106999999</v>
       </c>
       <c r="G6" s="1">
-        <v>23.107320</v>
+        <v>23.107320000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1262.610000</v>
+        <v>1262.6099999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-261.543000</v>
+        <v>-261.54300000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>83196.836046</v>
+        <v>83196.836045999997</v>
       </c>
       <c r="L6" s="1">
         <v>23.110232</v>
       </c>
       <c r="M6" s="1">
-        <v>1297.560000</v>
+        <v>1297.56</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.030000</v>
+        <v>-200.03</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>83207.414236</v>
+        <v>83207.414235999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>23.113171</v>
+        <v>23.113171000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1309.260000</v>
+        <v>1309.26</v>
       </c>
       <c r="S6" s="1">
-        <v>-181.924000</v>
+        <v>-181.92400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>83217.938375</v>
+        <v>83217.938374999998</v>
       </c>
       <c r="V6" s="1">
         <v>23.116094</v>
       </c>
       <c r="W6" s="1">
-        <v>1322.210000</v>
+        <v>1322.21</v>
       </c>
       <c r="X6" s="1">
-        <v>-168.137000</v>
+        <v>-168.137</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>83228.383129</v>
+        <v>83228.383128999994</v>
       </c>
       <c r="AA6" s="1">
-        <v>23.118995</v>
+        <v>23.118995000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>1339.290000</v>
+        <v>1339.29</v>
       </c>
       <c r="AC6" s="1">
-        <v>-164.969000</v>
+        <v>-164.96899999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>83238.928037</v>
+        <v>83238.928037000005</v>
       </c>
       <c r="AF6" s="1">
         <v>23.121924</v>
       </c>
       <c r="AG6" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AH6" s="1">
-        <v>-173.937000</v>
+        <v>-173.93700000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>83249.714071</v>
+        <v>83249.714070999995</v>
       </c>
       <c r="AK6" s="1">
-        <v>23.124921</v>
+        <v>23.124921000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1371.220000</v>
+        <v>1371.22</v>
       </c>
       <c r="AM6" s="1">
-        <v>-202.393000</v>
+        <v>-202.393</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>83260.326441</v>
+        <v>83260.326440999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>23.127868</v>
+        <v>23.127867999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1391.900000</v>
+        <v>1391.9</v>
       </c>
       <c r="AR6" s="1">
-        <v>-244.855000</v>
+        <v>-244.85499999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>83271.716075</v>
+        <v>83271.716075000004</v>
       </c>
       <c r="AU6" s="1">
-        <v>23.131032</v>
+        <v>23.131032000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1415.470000</v>
+        <v>1415.47</v>
       </c>
       <c r="AW6" s="1">
-        <v>-303.214000</v>
+        <v>-303.214</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>83282.758012</v>
+        <v>83282.758012000006</v>
       </c>
       <c r="AZ6" s="1">
-        <v>23.134099</v>
+        <v>23.134098999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1434.130000</v>
+        <v>1434.13</v>
       </c>
       <c r="BB6" s="1">
-        <v>-353.977000</v>
+        <v>-353.97699999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>83293.708189</v>
+        <v>83293.708188999997</v>
       </c>
       <c r="BE6" s="1">
         <v>23.137141</v>
       </c>
       <c r="BF6" s="1">
-        <v>1517.400000</v>
+        <v>1517.4</v>
       </c>
       <c r="BG6" s="1">
-        <v>-595.955000</v>
+        <v>-595.95500000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>83304.426240</v>
+        <v>83304.426240000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>23.140118</v>
+        <v>23.140118000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1669.270000</v>
+        <v>1669.27</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1028.290000</v>
+        <v>-1028.29</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>83315.266338</v>
+        <v>83315.266338000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>23.143130</v>
+        <v>23.143129999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1958.350000</v>
+        <v>1958.35</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1774.390000</v>
+        <v>-1774.39</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>83326.554031</v>
+        <v>83326.554031000007</v>
       </c>
       <c r="BT6" s="1">
         <v>23.146265</v>
       </c>
       <c r="BU6" s="1">
-        <v>2335.580000</v>
+        <v>2335.58</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2635.080000</v>
+        <v>-2635.08</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>83337.732099</v>
+        <v>83337.732099000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>23.149370</v>
+        <v>23.149370000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2808.220000</v>
+        <v>2808.22</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3569.050000</v>
+        <v>-3569.05</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>83349.097924</v>
+        <v>83349.097924000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>23.152527</v>
+        <v>23.152526999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4194.790000</v>
+        <v>4194.79</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5821.940000</v>
+        <v>-5821.94</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>83176.630061</v>
+        <v>83176.630061000003</v>
       </c>
       <c r="B7" s="1">
         <v>23.104619</v>
       </c>
       <c r="C7" s="1">
-        <v>1237.460000</v>
+        <v>1237.46</v>
       </c>
       <c r="D7" s="1">
-        <v>-303.579000</v>
+        <v>-303.57900000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>83187.044027</v>
+        <v>83187.044026999996</v>
       </c>
       <c r="G7" s="1">
         <v>23.107512</v>
       </c>
       <c r="H7" s="1">
-        <v>1262.250000</v>
+        <v>1262.25</v>
       </c>
       <c r="I7" s="1">
-        <v>-261.547000</v>
+        <v>-261.54700000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>83197.239789</v>
+        <v>83197.239788999999</v>
       </c>
       <c r="L7" s="1">
-        <v>23.110344</v>
+        <v>23.110344000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1297.700000</v>
+        <v>1297.7</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.317000</v>
+        <v>-200.31700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>83207.766383</v>
+        <v>83207.766382999995</v>
       </c>
       <c r="Q7" s="1">
-        <v>23.113268</v>
+        <v>23.113268000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1309.320000</v>
+        <v>1309.32</v>
       </c>
       <c r="S7" s="1">
-        <v>-181.856000</v>
+        <v>-181.85599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>83218.282560</v>
+        <v>83218.282560000007</v>
       </c>
       <c r="V7" s="1">
-        <v>23.116190</v>
+        <v>23.11619</v>
       </c>
       <c r="W7" s="1">
-        <v>1322.360000</v>
+        <v>1322.36</v>
       </c>
       <c r="X7" s="1">
-        <v>-167.861000</v>
+        <v>-167.86099999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>83228.733304</v>
+        <v>83228.733303999994</v>
       </c>
       <c r="AA7" s="1">
-        <v>23.119093</v>
+        <v>23.119092999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1339.010000</v>
+        <v>1339.01</v>
       </c>
       <c r="AC7" s="1">
-        <v>-165.051000</v>
+        <v>-165.05099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>83239.579284</v>
+        <v>83239.579284000007</v>
       </c>
       <c r="AF7" s="1">
-        <v>23.122105</v>
+        <v>23.122105000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AH7" s="1">
-        <v>-173.862000</v>
+        <v>-173.86199999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>83250.085543</v>
+        <v>83250.085542999994</v>
       </c>
       <c r="AK7" s="1">
         <v>23.125024</v>
       </c>
       <c r="AL7" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="AM7" s="1">
-        <v>-202.408000</v>
+        <v>-202.40799999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>83260.731704</v>
+        <v>83260.731704000005</v>
       </c>
       <c r="AP7" s="1">
-        <v>23.127981</v>
+        <v>23.127980999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1391.870000</v>
+        <v>1391.87</v>
       </c>
       <c r="AR7" s="1">
-        <v>-244.857000</v>
+        <v>-244.857</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>83272.081131</v>
+        <v>83272.081130999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>23.131134</v>
+        <v>23.131133999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1415.460000</v>
+        <v>1415.46</v>
       </c>
       <c r="AW7" s="1">
-        <v>-303.198000</v>
+        <v>-303.19799999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>83283.114635</v>
+        <v>83283.114635000005</v>
       </c>
       <c r="AZ7" s="1">
-        <v>23.134199</v>
+        <v>23.134198999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1434.090000</v>
+        <v>1434.09</v>
       </c>
       <c r="BB7" s="1">
-        <v>-354.010000</v>
+        <v>-354.01</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>83294.069772</v>
+        <v>83294.069772000003</v>
       </c>
       <c r="BE7" s="1">
-        <v>23.137242</v>
+        <v>23.137242000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1517.400000</v>
+        <v>1517.4</v>
       </c>
       <c r="BG7" s="1">
-        <v>-595.959000</v>
+        <v>-595.95899999999995</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>83304.857758</v>
+        <v>83304.857757999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>23.140238</v>
       </c>
       <c r="BK7" s="1">
-        <v>1669.330000</v>
+        <v>1669.33</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1028.250000</v>
+        <v>-1028.25</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>83315.695872</v>
+        <v>83315.695871999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>23.143249</v>
+        <v>23.143249000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1958.450000</v>
+        <v>1958.45</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1774.490000</v>
+        <v>-1774.49</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>83326.981313</v>
+        <v>83326.981312999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>23.146384</v>
+        <v>23.146384000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>2335.280000</v>
+        <v>2335.2800000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2634.670000</v>
+        <v>-2634.67</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>83338.163656</v>
+        <v>83338.163656000004</v>
       </c>
       <c r="BY7" s="1">
-        <v>23.149490</v>
+        <v>23.14949</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2808.530000</v>
+        <v>2808.53</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3570.140000</v>
+        <v>-3570.14</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>83349.639059</v>
+        <v>83349.639058999994</v>
       </c>
       <c r="CD7" s="1">
-        <v>23.152678</v>
+        <v>23.152678000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>4178.620000</v>
+        <v>4178.62</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5814.980000</v>
+        <v>-5814.98</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>83177.310535</v>
+        <v>83177.310534999997</v>
       </c>
       <c r="B8" s="1">
-        <v>23.104808</v>
+        <v>23.104807999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>1237.460000</v>
+        <v>1237.46</v>
       </c>
       <c r="D8" s="1">
-        <v>-303.712000</v>
+        <v>-303.71199999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>83187.395689</v>
+        <v>83187.395688999997</v>
       </c>
       <c r="G8" s="1">
-        <v>23.107610</v>
+        <v>23.107610000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1262.770000</v>
+        <v>1262.77</v>
       </c>
       <c r="I8" s="1">
-        <v>-262.472000</v>
+        <v>-262.47199999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>83197.582182</v>
+        <v>83197.582181999998</v>
       </c>
       <c r="L8" s="1">
         <v>23.110439</v>
       </c>
       <c r="M8" s="1">
-        <v>1297.560000</v>
+        <v>1297.56</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.274000</v>
+        <v>-200.274</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>83208.112590</v>
+        <v>83208.112590000004</v>
       </c>
       <c r="Q8" s="1">
-        <v>23.113365</v>
+        <v>23.113365000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>1309.310000</v>
+        <v>1309.31</v>
       </c>
       <c r="S8" s="1">
-        <v>-181.838000</v>
+        <v>-181.83799999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>83218.942272</v>
       </c>
       <c r="V8" s="1">
-        <v>23.116373</v>
+        <v>23.116372999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1322.170000</v>
+        <v>1322.17</v>
       </c>
       <c r="X8" s="1">
-        <v>-167.956000</v>
+        <v>-167.95599999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>83229.405841</v>
       </c>
       <c r="AA8" s="1">
-        <v>23.119279</v>
+        <v>23.119278999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1339.090000</v>
+        <v>1339.09</v>
       </c>
       <c r="AC8" s="1">
-        <v>-164.890000</v>
+        <v>-164.89</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>83239.958758</v>
+        <v>83239.958757999993</v>
       </c>
       <c r="AF8" s="1">
         <v>23.122211</v>
       </c>
       <c r="AG8" s="1">
-        <v>1351.590000</v>
+        <v>1351.59</v>
       </c>
       <c r="AH8" s="1">
-        <v>-173.871000</v>
+        <v>-173.87100000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>83250.435222</v>
@@ -2128,784 +2544,784 @@
         <v>23.125121</v>
       </c>
       <c r="AL8" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="AM8" s="1">
-        <v>-202.393000</v>
+        <v>-202.393</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>83261.115576</v>
+        <v>83261.115575999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>23.128088</v>
+        <v>23.128088000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1391.890000</v>
+        <v>1391.89</v>
       </c>
       <c r="AR8" s="1">
-        <v>-244.821000</v>
+        <v>-244.821</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>83272.444201</v>
+        <v>83272.444201000006</v>
       </c>
       <c r="AU8" s="1">
         <v>23.131235</v>
       </c>
       <c r="AV8" s="1">
-        <v>1415.460000</v>
+        <v>1415.46</v>
       </c>
       <c r="AW8" s="1">
-        <v>-303.199000</v>
+        <v>-303.19900000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>83283.476250</v>
+        <v>83283.476250000007</v>
       </c>
       <c r="AZ8" s="1">
-        <v>23.134299</v>
+        <v>23.134298999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1434.090000</v>
+        <v>1434.09</v>
       </c>
       <c r="BB8" s="1">
-        <v>-354.003000</v>
+        <v>-354.00299999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>83294.498353</v>
+        <v>83294.498353000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>23.137361</v>
+        <v>23.137360999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1517.400000</v>
+        <v>1517.4</v>
       </c>
       <c r="BG8" s="1">
-        <v>-595.992000</v>
+        <v>-595.99199999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>83305.203967</v>
+        <v>83305.203966999994</v>
       </c>
       <c r="BJ8" s="1">
-        <v>23.140334</v>
+        <v>23.140333999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1669.310000</v>
+        <v>1669.31</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1028.200000</v>
+        <v>-1028.2</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>83316.085695</v>
+        <v>83316.085695000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>23.143357</v>
+        <v>23.143357000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1958.430000</v>
+        <v>1958.43</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1774.480000</v>
+        <v>-1774.48</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>83327.392001</v>
       </c>
       <c r="BT8" s="1">
-        <v>23.146498</v>
+        <v>23.146498000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2335.170000</v>
+        <v>2335.17</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2634.550000</v>
+        <v>-2634.55</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>83338.584231</v>
+        <v>83338.584231000001</v>
       </c>
       <c r="BY8" s="1">
         <v>23.149607</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2808.880000</v>
+        <v>2808.88</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3569.500000</v>
+        <v>-3569.5</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>83350.177714</v>
+        <v>83350.177714000005</v>
       </c>
       <c r="CD8" s="1">
-        <v>23.152827</v>
+        <v>23.152826999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4184.210000</v>
+        <v>4184.21</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5832.240000</v>
+        <v>-5832.24</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>83177.653803</v>
+        <v>83177.653802999994</v>
       </c>
       <c r="B9" s="1">
-        <v>23.104904</v>
+        <v>23.104904000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1237.630000</v>
+        <v>1237.6300000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-303.835000</v>
+        <v>-303.83499999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>83187.740905</v>
+        <v>83187.740904999999</v>
       </c>
       <c r="G9" s="1">
         <v>23.107706</v>
       </c>
       <c r="H9" s="1">
-        <v>1261.800000</v>
+        <v>1261.8</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.123000</v>
+        <v>-262.12299999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>83198.243196</v>
+        <v>83198.243195999996</v>
       </c>
       <c r="L9" s="1">
         <v>23.110623</v>
       </c>
       <c r="M9" s="1">
-        <v>1297.310000</v>
+        <v>1297.31</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.137000</v>
+        <v>-200.137</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>83208.779214</v>
+        <v>83208.779213999995</v>
       </c>
       <c r="Q9" s="1">
-        <v>23.113550</v>
+        <v>23.11355</v>
       </c>
       <c r="R9" s="1">
-        <v>1309.320000</v>
+        <v>1309.32</v>
       </c>
       <c r="S9" s="1">
-        <v>-181.952000</v>
+        <v>-181.952</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>83219.310272</v>
+        <v>83219.310272000002</v>
       </c>
       <c r="V9" s="1">
-        <v>23.116475</v>
+        <v>23.116475000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1322.410000</v>
+        <v>1322.41</v>
       </c>
       <c r="X9" s="1">
-        <v>-167.930000</v>
+        <v>-167.93</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>83229.778337</v>
+        <v>83229.778336999996</v>
       </c>
       <c r="AA9" s="1">
-        <v>23.119383</v>
+        <v>23.119382999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>1339.140000</v>
+        <v>1339.14</v>
       </c>
       <c r="AC9" s="1">
-        <v>-164.882000</v>
+        <v>-164.88200000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>83240.301956</v>
+        <v>83240.301955999996</v>
       </c>
       <c r="AF9" s="1">
-        <v>23.122306</v>
+        <v>23.122305999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1351.440000</v>
+        <v>1351.44</v>
       </c>
       <c r="AH9" s="1">
-        <v>-173.888000</v>
+        <v>-173.88800000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>83250.784407</v>
+        <v>83250.784406999999</v>
       </c>
       <c r="AK9" s="1">
         <v>23.125218</v>
       </c>
       <c r="AL9" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="AM9" s="1">
-        <v>-202.420000</v>
+        <v>-202.42</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>83261.476412</v>
+        <v>83261.476412000004</v>
       </c>
       <c r="AP9" s="1">
-        <v>23.128188</v>
+        <v>23.128188000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1391.900000</v>
+        <v>1391.9</v>
       </c>
       <c r="AR9" s="1">
-        <v>-244.842000</v>
+        <v>-244.84200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>83272.863848</v>
+        <v>83272.863847999994</v>
       </c>
       <c r="AU9" s="1">
-        <v>23.131351</v>
+        <v>23.131350999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1415.470000</v>
+        <v>1415.47</v>
       </c>
       <c r="AW9" s="1">
-        <v>-303.203000</v>
+        <v>-303.20299999999997</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>83284.002970</v>
+        <v>83284.002970000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>23.134445</v>
+        <v>23.134444999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1434.110000</v>
+        <v>1434.11</v>
       </c>
       <c r="BB9" s="1">
-        <v>-354.014000</v>
+        <v>-354.01400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>83294.792939</v>
+        <v>83294.792939000006</v>
       </c>
       <c r="BE9" s="1">
         <v>23.137442</v>
       </c>
       <c r="BF9" s="1">
-        <v>1517.380000</v>
+        <v>1517.38</v>
       </c>
       <c r="BG9" s="1">
-        <v>-595.942000</v>
+        <v>-595.94200000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>83305.579470</v>
+        <v>83305.579469999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>23.140439</v>
+        <v>23.140439000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1669.250000</v>
+        <v>1669.25</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1028.170000</v>
+        <v>-1028.17</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>83316.506831</v>
+        <v>83316.506831000006</v>
       </c>
       <c r="BO9" s="1">
-        <v>23.143474</v>
+        <v>23.143474000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1958.440000</v>
+        <v>1958.44</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1774.500000</v>
+        <v>-1774.5</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>83327.825519</v>
+        <v>83327.825519000005</v>
       </c>
       <c r="BT9" s="1">
         <v>23.146618</v>
       </c>
       <c r="BU9" s="1">
-        <v>2335.290000</v>
+        <v>2335.29</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2634.100000</v>
+        <v>-2634.1</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>83339.014753</v>
+        <v>83339.014752999996</v>
       </c>
       <c r="BY9" s="1">
-        <v>23.149726</v>
+        <v>23.149726000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2808.130000</v>
+        <v>2808.13</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3569.740000</v>
+        <v>-3569.74</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>83350.717857</v>
+        <v>83350.717856999996</v>
       </c>
       <c r="CD9" s="1">
         <v>23.152977</v>
       </c>
       <c r="CE9" s="1">
-        <v>4188.770000</v>
+        <v>4188.7700000000004</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5810.270000</v>
+        <v>-5810.27</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>83177.996502</v>
+        <v>83177.996501999995</v>
       </c>
       <c r="B10" s="1">
-        <v>23.104999</v>
+        <v>23.104998999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-303.633000</v>
+        <v>-303.63299999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>83188.399111</v>
+        <v>83188.399111000006</v>
       </c>
       <c r="G10" s="1">
         <v>23.107889</v>
       </c>
       <c r="H10" s="1">
-        <v>1262.700000</v>
+        <v>1262.7</v>
       </c>
       <c r="I10" s="1">
-        <v>-262.525000</v>
+        <v>-262.52499999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>83198.623626</v>
+        <v>83198.623626000001</v>
       </c>
       <c r="L10" s="1">
-        <v>23.110729</v>
+        <v>23.110728999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1297.150000</v>
+        <v>1297.1500000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-199.978000</v>
+        <v>-199.97800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>83209.158156</v>
+        <v>83209.158156000005</v>
       </c>
       <c r="Q10" s="1">
-        <v>23.113655</v>
+        <v>23.113655000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1309.320000</v>
+        <v>1309.32</v>
       </c>
       <c r="S10" s="1">
-        <v>-181.939000</v>
+        <v>-181.93899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>83219.655487</v>
+        <v>83219.655486999996</v>
       </c>
       <c r="V10" s="1">
         <v>23.116571</v>
       </c>
       <c r="W10" s="1">
-        <v>1322.280000</v>
+        <v>1322.28</v>
       </c>
       <c r="X10" s="1">
-        <v>-167.953000</v>
+        <v>-167.953</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>83230.126033</v>
+        <v>83230.126032999993</v>
       </c>
       <c r="AA10" s="1">
-        <v>23.119479</v>
+        <v>23.119478999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>1339.120000</v>
+        <v>1339.12</v>
       </c>
       <c r="AC10" s="1">
-        <v>-165.080000</v>
+        <v>-165.08</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>83240.646179</v>
+        <v>83240.646179000003</v>
       </c>
       <c r="AF10" s="1">
-        <v>23.122402</v>
+        <v>23.122402000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1351.480000</v>
+        <v>1351.48</v>
       </c>
       <c r="AH10" s="1">
-        <v>-173.980000</v>
+        <v>-173.98</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>83251.204517</v>
+        <v>83251.204517000006</v>
       </c>
       <c r="AK10" s="1">
         <v>23.125335</v>
       </c>
       <c r="AL10" s="1">
-        <v>1371.210000</v>
+        <v>1371.21</v>
       </c>
       <c r="AM10" s="1">
-        <v>-202.393000</v>
+        <v>-202.393</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>83261.904711</v>
+        <v>83261.904710999996</v>
       </c>
       <c r="AP10" s="1">
         <v>23.128307</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1391.900000</v>
+        <v>1391.9</v>
       </c>
       <c r="AR10" s="1">
-        <v>-244.852000</v>
+        <v>-244.852</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>83273.171337</v>
+        <v>83273.171337000007</v>
       </c>
       <c r="AU10" s="1">
-        <v>23.131436</v>
+        <v>23.131436000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1415.450000</v>
+        <v>1415.45</v>
       </c>
       <c r="AW10" s="1">
-        <v>-303.174000</v>
+        <v>-303.17399999999998</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>83284.230137</v>
+        <v>83284.230137000006</v>
       </c>
       <c r="AZ10" s="1">
         <v>23.134508</v>
       </c>
       <c r="BA10" s="1">
-        <v>1434.100000</v>
+        <v>1434.1</v>
       </c>
       <c r="BB10" s="1">
-        <v>-353.977000</v>
+        <v>-353.97699999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>83295.153067</v>
+        <v>83295.153067000007</v>
       </c>
       <c r="BE10" s="1">
-        <v>23.137543</v>
+        <v>23.137543000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1517.400000</v>
+        <v>1517.4</v>
       </c>
       <c r="BG10" s="1">
-        <v>-595.957000</v>
+        <v>-595.95699999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>83305.954914</v>
+        <v>83305.954914000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>23.140543</v>
+        <v>23.140543000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1669.260000</v>
+        <v>1669.26</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1028.210000</v>
+        <v>-1028.21</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>83316.906574</v>
+        <v>83316.906573999993</v>
       </c>
       <c r="BO10" s="1">
-        <v>23.143585</v>
+        <v>23.143585000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1958.440000</v>
+        <v>1958.44</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1774.480000</v>
+        <v>-1774.48</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>83328.252063</v>
+        <v>83328.252063000007</v>
       </c>
       <c r="BT10" s="1">
-        <v>23.146737</v>
+        <v>23.146737000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>2335.010000</v>
+        <v>2335.0100000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2633.900000</v>
+        <v>-2633.9</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>83339.432917</v>
+        <v>83339.432916999998</v>
       </c>
       <c r="BY10" s="1">
         <v>23.149842</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2808.290000</v>
+        <v>2808.29</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3569.930000</v>
+        <v>-3569.93</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>83351.258994</v>
+        <v>83351.258994000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>23.153127</v>
+        <v>23.153127000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4174.280000</v>
+        <v>4174.28</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5825.410000</v>
+        <v>-5825.41</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>83178.661638</v>
+        <v>83178.661638000005</v>
       </c>
       <c r="B11" s="1">
-        <v>23.105184</v>
+        <v>23.105184000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-303.511000</v>
+        <v>-303.51100000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>83188.772087</v>
+        <v>83188.772087000005</v>
       </c>
       <c r="G11" s="1">
-        <v>23.107992</v>
+        <v>23.107991999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1261.680000</v>
+        <v>1261.68</v>
       </c>
       <c r="I11" s="1">
-        <v>-261.942000</v>
+        <v>-261.94200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>83198.968857</v>
       </c>
       <c r="L11" s="1">
-        <v>23.110825</v>
+        <v>23.110824999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>1297.650000</v>
+        <v>1297.6500000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-200.237000</v>
+        <v>-200.23699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>83209.506844</v>
+        <v>83209.506844000003</v>
       </c>
       <c r="Q11" s="1">
-        <v>23.113752</v>
+        <v>23.113752000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1309.240000</v>
+        <v>1309.24</v>
       </c>
       <c r="S11" s="1">
-        <v>-181.940000</v>
+        <v>-181.94</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>83219.997033</v>
+        <v>83219.997033000007</v>
       </c>
       <c r="V11" s="1">
-        <v>23.116666</v>
+        <v>23.116665999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1322.380000</v>
+        <v>1322.38</v>
       </c>
       <c r="X11" s="1">
-        <v>-168.106000</v>
+        <v>-168.10599999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>83230.477696</v>
+        <v>83230.477696000002</v>
       </c>
       <c r="AA11" s="1">
         <v>23.119577</v>
       </c>
       <c r="AB11" s="1">
-        <v>1339.130000</v>
+        <v>1339.13</v>
       </c>
       <c r="AC11" s="1">
-        <v>-164.964000</v>
+        <v>-164.964</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>83241.069266</v>
+        <v>83241.069266000006</v>
       </c>
       <c r="AF11" s="1">
         <v>23.122519</v>
       </c>
       <c r="AG11" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AH11" s="1">
-        <v>-173.880000</v>
+        <v>-173.88</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>83251.482309</v>
+        <v>83251.482308999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>23.125412</v>
+        <v>23.125412000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1371.200000</v>
+        <v>1371.2</v>
       </c>
       <c r="AM11" s="1">
-        <v>-202.422000</v>
+        <v>-202.422</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>83262.194871</v>
@@ -2914,2568 +3330,2568 @@
         <v>23.128387</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AR11" s="1">
-        <v>-244.790000</v>
+        <v>-244.79</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>83273.538873</v>
+        <v>83273.538872999998</v>
       </c>
       <c r="AU11" s="1">
         <v>23.131539</v>
       </c>
       <c r="AV11" s="1">
-        <v>1415.440000</v>
+        <v>1415.44</v>
       </c>
       <c r="AW11" s="1">
-        <v>-303.210000</v>
+        <v>-303.20999999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>83284.551578</v>
+        <v>83284.551577999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>23.134598</v>
       </c>
       <c r="BA11" s="1">
-        <v>1434.100000</v>
+        <v>1434.1</v>
       </c>
       <c r="BB11" s="1">
-        <v>-353.990000</v>
+        <v>-353.99</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>83295.516602</v>
+        <v>83295.516602000003</v>
       </c>
       <c r="BE11" s="1">
-        <v>23.137644</v>
+        <v>23.137644000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1517.400000</v>
+        <v>1517.4</v>
       </c>
       <c r="BG11" s="1">
-        <v>-595.977000</v>
+        <v>-595.97699999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>83306.726187</v>
+        <v>83306.726186999993</v>
       </c>
       <c r="BJ11" s="1">
-        <v>23.140757</v>
+        <v>23.140757000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1669.310000</v>
+        <v>1669.31</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1028.100000</v>
+        <v>-1028.0999999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>83317.340077</v>
+        <v>83317.340077000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>23.143706</v>
+        <v>23.143706000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1958.280000</v>
+        <v>1958.28</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1774.440000</v>
+        <v>-1774.44</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>83328.664734</v>
+        <v>83328.664734000005</v>
       </c>
       <c r="BT11" s="1">
-        <v>23.146851</v>
+        <v>23.146851000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>2334.660000</v>
+        <v>2334.66</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2633.580000</v>
+        <v>-2633.58</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>83339.849521</v>
+        <v>83339.849520999996</v>
       </c>
       <c r="BY11" s="1">
-        <v>23.149958</v>
+        <v>23.149958000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2807.810000</v>
+        <v>2807.81</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3569.820000</v>
+        <v>-3569.82</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>83351.799136</v>
+        <v>83351.799136000001</v>
       </c>
       <c r="CD11" s="1">
         <v>23.153278</v>
       </c>
       <c r="CE11" s="1">
-        <v>4194.210000</v>
+        <v>4194.21</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5821.140000</v>
+        <v>-5821.14</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>83179.023716</v>
+        <v>83179.023715999996</v>
       </c>
       <c r="B12" s="1">
-        <v>23.105284</v>
+        <v>23.105284000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1237.530000</v>
+        <v>1237.53</v>
       </c>
       <c r="D12" s="1">
-        <v>-303.669000</v>
+        <v>-303.66899999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>83189.116822</v>
+        <v>83189.116821999996</v>
       </c>
       <c r="G12" s="1">
-        <v>23.108088</v>
+        <v>23.108087999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1262.650000</v>
+        <v>1262.6500000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-262.798000</v>
+        <v>-262.798</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>83199.314553</v>
+        <v>83199.314553000004</v>
       </c>
       <c r="L12" s="1">
-        <v>23.110921</v>
+        <v>23.110921000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1297.510000</v>
+        <v>1297.51</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.330000</v>
+        <v>-200.33</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>83209.855533</v>
+        <v>83209.855532999994</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.113849</v>
+        <v>23.113848999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>1309.320000</v>
+        <v>1309.32</v>
       </c>
       <c r="S12" s="1">
-        <v>-181.874000</v>
+        <v>-181.874</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>83220.425775</v>
+        <v>83220.425774999996</v>
       </c>
       <c r="V12" s="1">
         <v>23.116785</v>
       </c>
       <c r="W12" s="1">
-        <v>1322.220000</v>
+        <v>1322.22</v>
       </c>
       <c r="X12" s="1">
-        <v>-167.948000</v>
+        <v>-167.94800000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>83230.976177</v>
+        <v>83230.976177000004</v>
       </c>
       <c r="AA12" s="1">
         <v>23.119716</v>
       </c>
       <c r="AB12" s="1">
-        <v>1339.100000</v>
+        <v>1339.1</v>
       </c>
       <c r="AC12" s="1">
-        <v>-165.101000</v>
+        <v>-165.101</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>83241.334626</v>
+        <v>83241.334625999996</v>
       </c>
       <c r="AF12" s="1">
-        <v>23.122593</v>
+        <v>23.122592999999998</v>
       </c>
       <c r="AG12" s="1">
-        <v>1351.460000</v>
+        <v>1351.46</v>
       </c>
       <c r="AH12" s="1">
-        <v>-173.949000</v>
+        <v>-173.94900000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>83251.829972</v>
+        <v>83251.829972000007</v>
       </c>
       <c r="AK12" s="1">
         <v>23.125508</v>
       </c>
       <c r="AL12" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="AM12" s="1">
-        <v>-202.409000</v>
+        <v>-202.40899999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>83262.553974</v>
+        <v>83262.553973999995</v>
       </c>
       <c r="AP12" s="1">
         <v>23.128487</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AR12" s="1">
-        <v>-244.820000</v>
+        <v>-244.82</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>83273.905415</v>
+        <v>83273.905415000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>23.131640</v>
+        <v>23.131640000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1415.430000</v>
+        <v>1415.43</v>
       </c>
       <c r="AW12" s="1">
-        <v>-303.207000</v>
+        <v>-303.20699999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>83285.269752</v>
+        <v>83285.269751999993</v>
       </c>
       <c r="AZ12" s="1">
-        <v>23.134797</v>
+        <v>23.134796999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1434.150000</v>
+        <v>1434.15</v>
       </c>
       <c r="BB12" s="1">
-        <v>-353.936000</v>
+        <v>-353.93599999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>83296.240015</v>
+        <v>83296.240015000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>23.137844</v>
+        <v>23.137844000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1517.400000</v>
+        <v>1517.4</v>
       </c>
       <c r="BG12" s="1">
-        <v>-595.983000</v>
+        <v>-595.98299999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>83307.101659</v>
+        <v>83307.101659000007</v>
       </c>
       <c r="BJ12" s="1">
-        <v>23.140862</v>
+        <v>23.140861999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1669.220000</v>
+        <v>1669.22</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1028.150000</v>
+        <v>-1028.1500000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>83317.721501</v>
+        <v>83317.721501000007</v>
       </c>
       <c r="BO12" s="1">
         <v>23.143812</v>
       </c>
       <c r="BP12" s="1">
-        <v>1958.260000</v>
+        <v>1958.26</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1774.290000</v>
+        <v>-1774.29</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>83329.092782</v>
+        <v>83329.092782000007</v>
       </c>
       <c r="BT12" s="1">
-        <v>23.146970</v>
+        <v>23.14697</v>
       </c>
       <c r="BU12" s="1">
-        <v>2334.760000</v>
+        <v>2334.7600000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2633.190000</v>
+        <v>-2633.19</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>83340.609423</v>
+        <v>83340.609423000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>23.150169</v>
+        <v>23.150169000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2808.550000</v>
+        <v>2808.55</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3569.170000</v>
+        <v>-3569.17</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>83352.653743</v>
+        <v>83352.653743000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>23.153515</v>
+        <v>23.153514999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4178.500000</v>
+        <v>4178.5</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5828.810000</v>
+        <v>-5828.81</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>83179.367136</v>
+        <v>83179.367136000001</v>
       </c>
       <c r="B13" s="1">
-        <v>23.105380</v>
+        <v>23.10538</v>
       </c>
       <c r="C13" s="1">
-        <v>1237.340000</v>
+        <v>1237.3399999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-303.652000</v>
+        <v>-303.65199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>83189.460535</v>
+        <v>83189.460535000006</v>
       </c>
       <c r="G13" s="1">
         <v>23.108183</v>
       </c>
       <c r="H13" s="1">
-        <v>1262.490000</v>
+        <v>1262.49</v>
       </c>
       <c r="I13" s="1">
-        <v>-262.240000</v>
+        <v>-262.24</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>83199.741611</v>
+        <v>83199.741611000005</v>
       </c>
       <c r="L13" s="1">
-        <v>23.111039</v>
+        <v>23.111039000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1297.700000</v>
+        <v>1297.7</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.177000</v>
+        <v>-200.17699999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>83210.274192</v>
+        <v>83210.274191999997</v>
       </c>
       <c r="Q13" s="1">
         <v>23.113965</v>
       </c>
       <c r="R13" s="1">
-        <v>1309.330000</v>
+        <v>1309.33</v>
       </c>
       <c r="S13" s="1">
-        <v>-181.854000</v>
+        <v>-181.85400000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>83220.692656</v>
+        <v>83220.692655999999</v>
       </c>
       <c r="V13" s="1">
-        <v>23.116859</v>
+        <v>23.116859000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>1322.370000</v>
+        <v>1322.37</v>
       </c>
       <c r="X13" s="1">
-        <v>-167.890000</v>
+        <v>-167.89</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>83231.176063</v>
+        <v>83231.176063000006</v>
       </c>
       <c r="AA13" s="1">
         <v>23.119771</v>
       </c>
       <c r="AB13" s="1">
-        <v>1339.150000</v>
+        <v>1339.15</v>
       </c>
       <c r="AC13" s="1">
-        <v>-164.982000</v>
+        <v>-164.982</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>83241.680339</v>
+        <v>83241.680338999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>23.122689</v>
+        <v>23.122689000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1351.550000</v>
+        <v>1351.55</v>
       </c>
       <c r="AH13" s="1">
-        <v>-174.004000</v>
+        <v>-174.00399999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>83252.179653</v>
+        <v>83252.179652999999</v>
       </c>
       <c r="AK13" s="1">
         <v>23.125605</v>
       </c>
       <c r="AL13" s="1">
-        <v>1371.200000</v>
+        <v>1371.2</v>
       </c>
       <c r="AM13" s="1">
-        <v>-202.393000</v>
+        <v>-202.393</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>83262.915557</v>
       </c>
       <c r="AP13" s="1">
-        <v>23.128588</v>
+        <v>23.128588000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AR13" s="1">
-        <v>-244.823000</v>
+        <v>-244.82300000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>83274.633047</v>
+        <v>83274.633046999996</v>
       </c>
       <c r="AU13" s="1">
         <v>23.131843</v>
       </c>
       <c r="AV13" s="1">
-        <v>1415.430000</v>
+        <v>1415.43</v>
       </c>
       <c r="AW13" s="1">
-        <v>-303.208000</v>
+        <v>-303.20800000000003</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>83285.628359</v>
+        <v>83285.628358999995</v>
       </c>
       <c r="AZ13" s="1">
-        <v>23.134897</v>
+        <v>23.134896999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1434.120000</v>
+        <v>1434.12</v>
       </c>
       <c r="BB13" s="1">
-        <v>-353.978000</v>
+        <v>-353.97800000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>83296.626153</v>
+        <v>83296.626153000005</v>
       </c>
       <c r="BE13" s="1">
-        <v>23.137952</v>
+        <v>23.137951999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1517.390000</v>
+        <v>1517.39</v>
       </c>
       <c r="BG13" s="1">
-        <v>-595.961000</v>
+        <v>-595.96100000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>83307.475675</v>
+        <v>83307.475674999994</v>
       </c>
       <c r="BJ13" s="1">
-        <v>23.140965</v>
+        <v>23.140965000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1669.240000</v>
+        <v>1669.24</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1028.170000</v>
+        <v>-1028.17</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>83318.144093</v>
+        <v>83318.144092999995</v>
       </c>
       <c r="BO13" s="1">
         <v>23.143929</v>
       </c>
       <c r="BP13" s="1">
-        <v>1958.260000</v>
+        <v>1958.26</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1774.370000</v>
+        <v>-1774.37</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>83329.836285</v>
+        <v>83329.836284999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>23.147177</v>
+        <v>23.147176999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2335.190000</v>
+        <v>2335.19</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2632.830000</v>
+        <v>-2632.83</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>83340.742351</v>
+        <v>83340.742350999994</v>
       </c>
       <c r="BY13" s="1">
-        <v>23.150206</v>
+        <v>23.150206000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2808.410000</v>
+        <v>2808.41</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3569.300000</v>
+        <v>-3569.3</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>83352.868511</v>
+        <v>83352.868510999993</v>
       </c>
       <c r="CD13" s="1">
         <v>23.153575</v>
       </c>
       <c r="CE13" s="1">
-        <v>4177.870000</v>
+        <v>4177.87</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5827.320000</v>
+        <v>-5827.32</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>83179.800451</v>
+        <v>83179.800451000003</v>
       </c>
       <c r="B14" s="1">
-        <v>23.105500</v>
+        <v>23.105499999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="D14" s="1">
-        <v>-303.654000</v>
+        <v>-303.654</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>83189.893542</v>
+        <v>83189.893542000005</v>
       </c>
       <c r="G14" s="1">
         <v>23.108304</v>
       </c>
       <c r="H14" s="1">
-        <v>1262.500000</v>
+        <v>1262.5</v>
       </c>
       <c r="I14" s="1">
-        <v>-262.049000</v>
+        <v>-262.04899999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>83200.013417</v>
+        <v>83200.013416999995</v>
       </c>
       <c r="L14" s="1">
-        <v>23.111115</v>
+        <v>23.111115000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1297.560000</v>
+        <v>1297.56</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.259000</v>
+        <v>-200.25899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>83210.554894</v>
+        <v>83210.554894000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>23.114043</v>
+        <v>23.114042999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1309.360000</v>
+        <v>1309.3599999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-181.834000</v>
+        <v>-181.834</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>83221.037837</v>
+        <v>83221.037836999996</v>
       </c>
       <c r="V14" s="1">
-        <v>23.116955</v>
+        <v>23.116955000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1322.210000</v>
+        <v>1322.21</v>
       </c>
       <c r="X14" s="1">
-        <v>-168.036000</v>
+        <v>-168.036</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>83231.522795</v>
+        <v>83231.522794999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>23.119867</v>
+        <v>23.119866999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1339.040000</v>
+        <v>1339.04</v>
       </c>
       <c r="AC14" s="1">
-        <v>-164.983000</v>
+        <v>-164.983</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>83242.021585</v>
+        <v>83242.021584999995</v>
       </c>
       <c r="AF14" s="1">
-        <v>23.122784</v>
+        <v>23.122783999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1351.600000</v>
+        <v>1351.6</v>
       </c>
       <c r="AH14" s="1">
-        <v>-173.893000</v>
+        <v>-173.893</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>83252.876035</v>
+        <v>83252.876034999994</v>
       </c>
       <c r="AK14" s="1">
-        <v>23.125799</v>
+        <v>23.125799000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="AM14" s="1">
-        <v>-202.410000</v>
+        <v>-202.41</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>83263.637237</v>
+        <v>83263.637237000003</v>
       </c>
       <c r="AP14" s="1">
         <v>23.128788</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AR14" s="1">
-        <v>-244.834000</v>
+        <v>-244.834</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>83275.019430</v>
+        <v>83275.01943</v>
       </c>
       <c r="AU14" s="1">
-        <v>23.131950</v>
+        <v>23.13195</v>
       </c>
       <c r="AV14" s="1">
-        <v>1415.450000</v>
+        <v>1415.45</v>
       </c>
       <c r="AW14" s="1">
-        <v>-303.209000</v>
+        <v>-303.209</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>83285.986967</v>
+        <v>83285.986967000004</v>
       </c>
       <c r="AZ14" s="1">
-        <v>23.134996</v>
+        <v>23.134996000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1434.100000</v>
+        <v>1434.1</v>
       </c>
       <c r="BB14" s="1">
-        <v>-354.009000</v>
+        <v>-354.00900000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>83296.985753</v>
+        <v>83296.985753000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>23.138052</v>
+        <v>23.138051999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1517.380000</v>
+        <v>1517.38</v>
       </c>
       <c r="BG14" s="1">
-        <v>-595.957000</v>
+        <v>-595.95699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>83308.163593</v>
+        <v>83308.163593000005</v>
       </c>
       <c r="BJ14" s="1">
         <v>23.141157</v>
       </c>
       <c r="BK14" s="1">
-        <v>1669.240000</v>
+        <v>1669.24</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1028.170000</v>
+        <v>-1028.17</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>83318.850929</v>
+        <v>83318.850928999993</v>
       </c>
       <c r="BO14" s="1">
-        <v>23.144125</v>
+        <v>23.144124999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1958.350000</v>
+        <v>1958.35</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1774.400000</v>
+        <v>-1774.4</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>83329.970734</v>
+        <v>83329.970734000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>23.147214</v>
+        <v>23.147214000000002</v>
       </c>
       <c r="BU14" s="1">
-        <v>2334.810000</v>
+        <v>2334.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2632.630000</v>
+        <v>-2632.63</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>83341.169473</v>
+        <v>83341.169473000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>23.150325</v>
+        <v>23.150324999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2807.440000</v>
+        <v>2807.44</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3569.510000</v>
+        <v>-3569.51</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>83353.395262</v>
+        <v>83353.395262000005</v>
       </c>
       <c r="CD14" s="1">
-        <v>23.153721</v>
+        <v>23.153721000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4191.860000</v>
+        <v>4191.8599999999997</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5826.700000</v>
+        <v>-5826.7</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>83180.065813</v>
+        <v>83180.065812999994</v>
       </c>
       <c r="B15" s="1">
-        <v>23.105574</v>
+        <v>23.105574000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1237.510000</v>
+        <v>1237.51</v>
       </c>
       <c r="D15" s="1">
-        <v>-303.724000</v>
+        <v>-303.72399999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>83190.174775</v>
+        <v>83190.174775000007</v>
       </c>
       <c r="G15" s="1">
-        <v>23.108382</v>
+        <v>23.108381999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1262.670000</v>
+        <v>1262.67</v>
       </c>
       <c r="I15" s="1">
-        <v>-262.339000</v>
+        <v>-262.339</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>83200.361148</v>
+        <v>83200.361147999996</v>
       </c>
       <c r="L15" s="1">
-        <v>23.111211</v>
+        <v>23.111211000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1297.510000</v>
+        <v>1297.51</v>
       </c>
       <c r="N15" s="1">
-        <v>-199.953000</v>
+        <v>-199.953</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>83210.903578</v>
+        <v>83210.903577999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>23.114140</v>
+        <v>23.114139999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1309.360000</v>
+        <v>1309.3599999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-181.948000</v>
+        <v>-181.94800000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>83221.380605</v>
+        <v>83221.380604999998</v>
       </c>
       <c r="V15" s="1">
-        <v>23.117050</v>
+        <v>23.117049999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1322.220000</v>
+        <v>1322.22</v>
       </c>
       <c r="X15" s="1">
-        <v>-167.954000</v>
+        <v>-167.95400000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>83232.218159</v>
+        <v>83232.218158999996</v>
       </c>
       <c r="AA15" s="1">
         <v>23.120061</v>
       </c>
       <c r="AB15" s="1">
-        <v>1339.110000</v>
+        <v>1339.11</v>
       </c>
       <c r="AC15" s="1">
-        <v>-165.025000</v>
+        <v>-165.02500000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>83242.707553</v>
       </c>
       <c r="AF15" s="1">
-        <v>23.122974</v>
+        <v>23.122973999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1351.520000</v>
+        <v>1351.52</v>
       </c>
       <c r="AH15" s="1">
-        <v>-173.882000</v>
+        <v>-173.88200000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>83253.213315</v>
+        <v>83253.213315000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>23.125893</v>
+        <v>23.125893000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1371.250000</v>
+        <v>1371.25</v>
       </c>
       <c r="AM15" s="1">
-        <v>-202.414000</v>
+        <v>-202.41399999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>83264.000308</v>
+        <v>83264.000308000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>23.128889</v>
+        <v>23.128889000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AR15" s="1">
-        <v>-244.818000</v>
+        <v>-244.81800000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>83275.382997</v>
+        <v>83275.382996999993</v>
       </c>
       <c r="AU15" s="1">
-        <v>23.132051</v>
+        <v>23.132051000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1415.420000</v>
+        <v>1415.42</v>
       </c>
       <c r="AW15" s="1">
-        <v>-303.198000</v>
+        <v>-303.19799999999998</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>83286.664006</v>
+        <v>83286.664006000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>23.135184</v>
+        <v>23.135183999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1434.120000</v>
+        <v>1434.12</v>
       </c>
       <c r="BB15" s="1">
-        <v>-354.025000</v>
+        <v>-354.02499999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>83297.653399</v>
+        <v>83297.653399000003</v>
       </c>
       <c r="BE15" s="1">
         <v>23.138237</v>
       </c>
       <c r="BF15" s="1">
-        <v>1517.390000</v>
+        <v>1517.39</v>
       </c>
       <c r="BG15" s="1">
-        <v>-595.933000</v>
+        <v>-595.93299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>83308.273237</v>
+        <v>83308.273237000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>23.141187</v>
+        <v>23.141186999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1669.290000</v>
+        <v>1669.29</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1028.210000</v>
+        <v>-1028.21</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>83318.961003</v>
+        <v>83318.961003000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>23.144156</v>
+        <v>23.144155999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1958.260000</v>
+        <v>1958.26</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1774.430000</v>
+        <v>-1774.43</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>83330.379404</v>
+        <v>83330.379404000007</v>
       </c>
       <c r="BT15" s="1">
-        <v>23.147328</v>
+        <v>23.147328000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>2335.120000</v>
+        <v>2335.12</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2632.400000</v>
+        <v>-2632.4</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>83341.586016</v>
+        <v>83341.586016000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>23.150441</v>
+        <v>23.150441000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2808.600000</v>
+        <v>2808.6</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3569.210000</v>
+        <v>-3569.21</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>83353.915069</v>
+        <v>83353.915068999995</v>
       </c>
       <c r="CD15" s="1">
         <v>23.153865</v>
       </c>
       <c r="CE15" s="1">
-        <v>4188.950000</v>
+        <v>4188.95</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5831.120000</v>
+        <v>-5831.12</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>83180.409074</v>
+        <v>83180.409073999996</v>
       </c>
       <c r="B16" s="1">
-        <v>23.105669</v>
+        <v>23.105668999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1237.310000</v>
+        <v>1237.31</v>
       </c>
       <c r="D16" s="1">
-        <v>-303.608000</v>
+        <v>-303.608</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>83190.518042</v>
+        <v>83190.518041999996</v>
       </c>
       <c r="G16" s="1">
-        <v>23.108477</v>
+        <v>23.108477000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1262.590000</v>
+        <v>1262.5899999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-262.294000</v>
+        <v>-262.29399999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>83200.706327</v>
+        <v>83200.706327000007</v>
       </c>
       <c r="L16" s="1">
         <v>23.111307</v>
       </c>
       <c r="M16" s="1">
-        <v>1297.550000</v>
+        <v>1297.55</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.454000</v>
+        <v>-200.45400000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>83211.250778</v>
+        <v>83211.250778000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>23.114236</v>
+        <v>23.114235999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>1309.300000</v>
+        <v>1309.3</v>
       </c>
       <c r="S16" s="1">
-        <v>-181.959000</v>
+        <v>-181.959</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>83222.067532</v>
+        <v>83222.067532000001</v>
       </c>
       <c r="V16" s="1">
         <v>23.117241</v>
       </c>
       <c r="W16" s="1">
-        <v>1322.100000</v>
+        <v>1322.1</v>
       </c>
       <c r="X16" s="1">
-        <v>-168.112000</v>
+        <v>-168.11199999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>83232.567343</v>
+        <v>83232.567343000002</v>
       </c>
       <c r="AA16" s="1">
         <v>23.120158</v>
       </c>
       <c r="AB16" s="1">
-        <v>1339.200000</v>
+        <v>1339.2</v>
       </c>
       <c r="AC16" s="1">
-        <v>-164.974000</v>
+        <v>-164.97399999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>83243.050801</v>
+        <v>83243.050801000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>23.123070</v>
+        <v>23.123069999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1351.500000</v>
+        <v>1351.5</v>
       </c>
       <c r="AH16" s="1">
-        <v>-173.811000</v>
+        <v>-173.81100000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>83253.571425</v>
+        <v>83253.571425000002</v>
       </c>
       <c r="AK16" s="1">
         <v>23.125992</v>
       </c>
       <c r="AL16" s="1">
-        <v>1371.250000</v>
+        <v>1371.25</v>
       </c>
       <c r="AM16" s="1">
-        <v>-202.397000</v>
+        <v>-202.39699999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>83264.358419</v>
+        <v>83264.358418999997</v>
       </c>
       <c r="AP16" s="1">
         <v>23.128988</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AR16" s="1">
-        <v>-244.840000</v>
+        <v>-244.84</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>83276.064500</v>
+        <v>83276.064499999993</v>
       </c>
       <c r="AU16" s="1">
-        <v>23.132240</v>
+        <v>23.132239999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1415.430000</v>
+        <v>1415.43</v>
       </c>
       <c r="AW16" s="1">
-        <v>-303.188000</v>
+        <v>-303.18799999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>83287.062789</v>
+        <v>83287.062789000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>23.135295</v>
+        <v>23.135294999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1434.100000</v>
+        <v>1434.1</v>
       </c>
       <c r="BB16" s="1">
-        <v>-353.965000</v>
+        <v>-353.96499999999997</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>83298.102743</v>
+        <v>83298.102742999996</v>
       </c>
       <c r="BE16" s="1">
-        <v>23.138362</v>
+        <v>23.138362000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1517.390000</v>
+        <v>1517.39</v>
       </c>
       <c r="BG16" s="1">
-        <v>-595.922000</v>
+        <v>-595.92200000000003</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>83308.629869</v>
+        <v>83308.629868999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>23.141286</v>
+        <v>23.141286000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1669.210000</v>
+        <v>1669.21</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1028.100000</v>
+        <v>-1028.0999999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>83319.386573</v>
+        <v>83319.386572999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>23.144274</v>
+        <v>23.144273999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1958.220000</v>
+        <v>1958.22</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1774.340000</v>
+        <v>-1774.34</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>83330.809435</v>
+        <v>83330.809435000003</v>
       </c>
       <c r="BT16" s="1">
         <v>23.147447</v>
       </c>
       <c r="BU16" s="1">
-        <v>2335.050000</v>
+        <v>2335.0500000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2632.160000</v>
+        <v>-2632.16</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>83342.038398</v>
+        <v>83342.038398000004</v>
       </c>
       <c r="BY16" s="1">
-        <v>23.150566</v>
+        <v>23.150566000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2807.500000</v>
+        <v>2807.5</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3569.390000</v>
+        <v>-3569.39</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>83354.466621</v>
       </c>
       <c r="CD16" s="1">
-        <v>23.154019</v>
+        <v>23.154019000000002</v>
       </c>
       <c r="CE16" s="1">
-        <v>4178.500000</v>
+        <v>4178.5</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5827.170000</v>
+        <v>-5827.17</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>83180.750292</v>
+        <v>83180.750291999997</v>
       </c>
       <c r="B17" s="1">
-        <v>23.105764</v>
+        <v>23.105764000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-303.584000</v>
+        <v>-303.584</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>83190.862230</v>
+        <v>83190.862229999999</v>
       </c>
       <c r="G17" s="1">
         <v>23.108573</v>
       </c>
       <c r="H17" s="1">
-        <v>1262.040000</v>
+        <v>1262.04</v>
       </c>
       <c r="I17" s="1">
-        <v>-262.237000</v>
+        <v>-262.23700000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>83201.403736</v>
+        <v>83201.403735999993</v>
       </c>
       <c r="L17" s="1">
-        <v>23.111501</v>
+        <v>23.111501000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>1297.250000</v>
+        <v>1297.25</v>
       </c>
       <c r="N17" s="1">
-        <v>-199.953000</v>
+        <v>-199.953</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>83211.948686</v>
+        <v>83211.948686000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>23.114430</v>
+        <v>23.114429999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1309.300000</v>
+        <v>1309.3</v>
       </c>
       <c r="S17" s="1">
-        <v>-181.941000</v>
+        <v>-181.941</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>83222.411259</v>
       </c>
       <c r="V17" s="1">
-        <v>23.117336</v>
+        <v>23.117336000000002</v>
       </c>
       <c r="W17" s="1">
-        <v>1322.310000</v>
+        <v>1322.31</v>
       </c>
       <c r="X17" s="1">
-        <v>-167.872000</v>
+        <v>-167.87200000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>83232.915534</v>
       </c>
       <c r="AA17" s="1">
-        <v>23.120254</v>
+        <v>23.120253999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1339.090000</v>
+        <v>1339.09</v>
       </c>
       <c r="AC17" s="1">
-        <v>-165.013000</v>
+        <v>-165.01300000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>83243.396497</v>
+        <v>83243.396496999994</v>
       </c>
       <c r="AF17" s="1">
-        <v>23.123166</v>
+        <v>23.123166000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1351.580000</v>
+        <v>1351.58</v>
       </c>
       <c r="AH17" s="1">
-        <v>-173.909000</v>
+        <v>-173.90899999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>83254.234113</v>
+        <v>83254.234112999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>23.126176</v>
+        <v>23.126176000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1371.250000</v>
+        <v>1371.25</v>
       </c>
       <c r="AM17" s="1">
-        <v>-202.417000</v>
+        <v>-202.417</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>83265.038930</v>
+        <v>83265.038929999995</v>
       </c>
       <c r="AP17" s="1">
-        <v>23.129177</v>
+        <v>23.129176999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AR17" s="1">
-        <v>-244.831000</v>
+        <v>-244.83099999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>83276.514372</v>
+        <v>83276.514372000005</v>
       </c>
       <c r="AU17" s="1">
         <v>23.132365</v>
       </c>
       <c r="AV17" s="1">
-        <v>1415.460000</v>
+        <v>1415.46</v>
       </c>
       <c r="AW17" s="1">
-        <v>-303.178000</v>
+        <v>-303.178</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>83287.446692</v>
+        <v>83287.446691999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>23.135402</v>
+        <v>23.135401999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1434.110000</v>
+        <v>1434.11</v>
       </c>
       <c r="BB17" s="1">
-        <v>-354.003000</v>
+        <v>-354.00299999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>83298.465318</v>
+        <v>83298.465318000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>23.138463</v>
+        <v>23.138463000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG17" s="1">
-        <v>-595.926000</v>
+        <v>-595.92600000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>83309.005682</v>
+        <v>83309.005682000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>23.141390</v>
+        <v>23.141390000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1669.240000</v>
+        <v>1669.24</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1028.110000</v>
+        <v>-1028.1099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>83320.001647</v>
+        <v>83320.001646999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>23.144445</v>
+        <v>23.144445000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1958.400000</v>
+        <v>1958.4</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1774.390000</v>
+        <v>-1774.39</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>83331.228555</v>
+        <v>83331.228554999994</v>
       </c>
       <c r="BT17" s="1">
-        <v>23.147563</v>
+        <v>23.147563000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>2335.160000</v>
+        <v>2335.16</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2632.030000</v>
+        <v>-2632.03</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>83342.487749</v>
+        <v>83342.487749000007</v>
       </c>
       <c r="BY17" s="1">
-        <v>23.150691</v>
+        <v>23.150690999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2807.960000</v>
+        <v>2807.96</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3569.420000</v>
+        <v>-3569.42</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>83354.997868</v>
+        <v>83354.997868000006</v>
       </c>
       <c r="CD17" s="1">
         <v>23.154166</v>
       </c>
       <c r="CE17" s="1">
-        <v>4192.070000</v>
+        <v>4192.07</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5824.410000</v>
+        <v>-5824.41</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>83181.434770</v>
+        <v>83181.434770000007</v>
       </c>
       <c r="B18" s="1">
-        <v>23.105954</v>
+        <v>23.105954000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1237.540000</v>
+        <v>1237.54</v>
       </c>
       <c r="D18" s="1">
-        <v>-303.560000</v>
+        <v>-303.56</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>83191.553653</v>
+        <v>83191.553652999995</v>
       </c>
       <c r="G18" s="1">
-        <v>23.108765</v>
+        <v>23.108764999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1262.780000</v>
+        <v>1262.78</v>
       </c>
       <c r="I18" s="1">
-        <v>-262.336000</v>
+        <v>-262.33600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>83201.753383</v>
+        <v>83201.753383000003</v>
       </c>
       <c r="L18" s="1">
-        <v>23.111598</v>
+        <v>23.111598000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1297.380000</v>
+        <v>1297.3800000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.076000</v>
+        <v>-200.07599999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>83212.300314</v>
+        <v>83212.300313999993</v>
       </c>
       <c r="Q18" s="1">
         <v>23.114528</v>
       </c>
       <c r="R18" s="1">
-        <v>1309.250000</v>
+        <v>1309.25</v>
       </c>
       <c r="S18" s="1">
-        <v>-181.893000</v>
+        <v>-181.893</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>83222.755483</v>
+        <v>83222.755483000001</v>
       </c>
       <c r="V18" s="1">
-        <v>23.117432</v>
+        <v>23.117432000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1322.130000</v>
+        <v>1322.13</v>
       </c>
       <c r="X18" s="1">
-        <v>-168.063000</v>
+        <v>-168.06299999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>83233.577196</v>
+        <v>83233.577195999998</v>
       </c>
       <c r="AA18" s="1">
         <v>23.120438</v>
       </c>
       <c r="AB18" s="1">
-        <v>1339.060000</v>
+        <v>1339.06</v>
       </c>
       <c r="AC18" s="1">
-        <v>-164.933000</v>
+        <v>-164.93299999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>83244.066094</v>
+        <v>83244.066093999994</v>
       </c>
       <c r="AF18" s="1">
-        <v>23.123352</v>
+        <v>23.123352000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1351.520000</v>
+        <v>1351.52</v>
       </c>
       <c r="AH18" s="1">
-        <v>-173.915000</v>
+        <v>-173.91499999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>83254.617024</v>
+        <v>83254.617024000006</v>
       </c>
       <c r="AK18" s="1">
-        <v>23.126283</v>
+        <v>23.126283000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1371.210000</v>
+        <v>1371.21</v>
       </c>
       <c r="AM18" s="1">
-        <v>-202.402000</v>
+        <v>-202.40199999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>83265.460034</v>
+        <v>83265.460034000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>23.129294</v>
+        <v>23.129294000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AR18" s="1">
-        <v>-244.833000</v>
+        <v>-244.833</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>83276.877971</v>
+        <v>83276.877970999994</v>
       </c>
       <c r="AU18" s="1">
-        <v>23.132466</v>
+        <v>23.132466000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1415.440000</v>
+        <v>1415.44</v>
       </c>
       <c r="AW18" s="1">
-        <v>-303.185000</v>
+        <v>-303.185</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>83287.803813</v>
+        <v>83287.803813000006</v>
       </c>
       <c r="AZ18" s="1">
-        <v>23.135501</v>
+        <v>23.135501000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1434.110000</v>
+        <v>1434.11</v>
       </c>
       <c r="BB18" s="1">
-        <v>-354.005000</v>
+        <v>-354.005</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>83298.826902</v>
+        <v>83298.826902000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>23.138563</v>
+        <v>23.138563000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1517.380000</v>
+        <v>1517.38</v>
       </c>
       <c r="BG18" s="1">
-        <v>-595.937000</v>
+        <v>-595.93700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>83309.435833</v>
+        <v>83309.435832999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>23.141510</v>
+        <v>23.14151</v>
       </c>
       <c r="BK18" s="1">
-        <v>1669.290000</v>
+        <v>1669.29</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1028.180000</v>
+        <v>-1028.18</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>83320.204972</v>
+        <v>83320.204972000007</v>
       </c>
       <c r="BO18" s="1">
-        <v>23.144501</v>
+        <v>23.144501000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1958.290000</v>
+        <v>1958.29</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1774.200000</v>
+        <v>-1774.2</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>83331.638285</v>
+        <v>83331.638284999994</v>
       </c>
       <c r="BT18" s="1">
-        <v>23.147677</v>
+        <v>23.147677000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>2335.230000</v>
+        <v>2335.23</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2631.660000</v>
+        <v>-2631.66</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>83342.909339</v>
+        <v>83342.909339000005</v>
       </c>
       <c r="BY18" s="1">
-        <v>23.150808</v>
+        <v>23.150808000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2808.200000</v>
+        <v>2808.2</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3569.440000</v>
+        <v>-3569.44</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>83355.516155</v>
+        <v>83355.516155000005</v>
       </c>
       <c r="CD18" s="1">
-        <v>23.154310</v>
+        <v>23.154309999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>4184.400000</v>
+        <v>4184.3999999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5831.810000</v>
+        <v>-5831.81</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>83181.773537</v>
+        <v>83181.773537000001</v>
       </c>
       <c r="B19" s="1">
-        <v>23.106048</v>
+        <v>23.106048000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1237.190000</v>
+        <v>1237.19</v>
       </c>
       <c r="D19" s="1">
-        <v>-303.810000</v>
+        <v>-303.81</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>83191.895891</v>
+        <v>83191.895890999993</v>
       </c>
       <c r="G19" s="1">
-        <v>23.108860</v>
+        <v>23.10886</v>
       </c>
       <c r="H19" s="1">
-        <v>1262.280000</v>
+        <v>1262.28</v>
       </c>
       <c r="I19" s="1">
-        <v>-261.640000</v>
+        <v>-261.64</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>83202.097608</v>
+        <v>83202.097607999996</v>
       </c>
       <c r="L19" s="1">
         <v>23.111694</v>
       </c>
       <c r="M19" s="1">
-        <v>1297.480000</v>
+        <v>1297.48</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.018000</v>
+        <v>-200.018</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>83212.647512</v>
+        <v>83212.647511999996</v>
       </c>
       <c r="Q19" s="1">
-        <v>23.114624</v>
+        <v>23.114623999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1309.360000</v>
+        <v>1309.3599999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-181.924000</v>
+        <v>-181.92400000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>83223.414171</v>
+        <v>83223.414170999997</v>
       </c>
       <c r="V19" s="1">
-        <v>23.117615</v>
+        <v>23.117615000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1322.170000</v>
+        <v>1322.17</v>
       </c>
       <c r="X19" s="1">
-        <v>-167.675000</v>
+        <v>-167.67500000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>83233.959116</v>
+        <v>83233.959115999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>23.120544</v>
+        <v>23.120543999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1339.180000</v>
+        <v>1339.18</v>
       </c>
       <c r="AC19" s="1">
-        <v>-164.960000</v>
+        <v>-164.96</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>83244.434622</v>
+        <v>83244.434622000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>23.123454</v>
+        <v>23.123453999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1351.600000</v>
+        <v>1351.6</v>
       </c>
       <c r="AH19" s="1">
-        <v>-173.874000</v>
+        <v>-173.874</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>83254.967168</v>
+        <v>83254.967168000003</v>
       </c>
       <c r="AK19" s="1">
-        <v>23.126380</v>
+        <v>23.126380000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="AM19" s="1">
-        <v>-202.377000</v>
+        <v>-202.37700000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>83265.840961</v>
+        <v>83265.840960999994</v>
       </c>
       <c r="AP19" s="1">
-        <v>23.129400</v>
+        <v>23.1294</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AR19" s="1">
-        <v>-244.826000</v>
+        <v>-244.82599999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>83277.241011</v>
+        <v>83277.241011000006</v>
       </c>
       <c r="AU19" s="1">
-        <v>23.132567</v>
+        <v>23.132567000000002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1415.440000</v>
+        <v>1415.44</v>
       </c>
       <c r="AW19" s="1">
-        <v>-303.203000</v>
+        <v>-303.20299999999997</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>83288.222964</v>
+        <v>83288.222964000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>23.135617</v>
       </c>
       <c r="BA19" s="1">
-        <v>1434.090000</v>
+        <v>1434.09</v>
       </c>
       <c r="BB19" s="1">
-        <v>-353.950000</v>
+        <v>-353.95</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>83299.251014</v>
+        <v>83299.251013999994</v>
       </c>
       <c r="BE19" s="1">
-        <v>23.138681</v>
+        <v>23.138680999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1517.390000</v>
+        <v>1517.39</v>
       </c>
       <c r="BG19" s="1">
-        <v>-595.940000</v>
+        <v>-595.94000000000005</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>83309.757239</v>
+        <v>83309.757238999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>23.141599</v>
+        <v>23.141598999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1669.210000</v>
+        <v>1669.21</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1028.080000</v>
+        <v>-1028.08</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>83320.602265</v>
+        <v>83320.602264999994</v>
       </c>
       <c r="BO19" s="1">
-        <v>23.144612</v>
+        <v>23.144611999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1958.290000</v>
+        <v>1958.29</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1774.160000</v>
+        <v>-1774.16</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>83332.052410</v>
+        <v>83332.052410000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>23.147792</v>
+        <v>23.147791999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2335.510000</v>
+        <v>2335.5100000000002</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2631.520000</v>
+        <v>-2631.52</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>83343.332427</v>
+        <v>83343.332427000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>23.150926</v>
+        <v>23.150925999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2808.530000</v>
+        <v>2808.53</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3568.640000</v>
+        <v>-3568.64</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>83356.068083</v>
+        <v>83356.068083000006</v>
       </c>
       <c r="CD19" s="1">
         <v>23.154463</v>
       </c>
       <c r="CE19" s="1">
-        <v>4175.700000</v>
+        <v>4175.7</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5825.960000</v>
+        <v>-5825.96</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>83182.117085</v>
+        <v>83182.117085000005</v>
       </c>
       <c r="B20" s="1">
         <v>23.106144</v>
       </c>
       <c r="C20" s="1">
-        <v>1237.800000</v>
+        <v>1237.8</v>
       </c>
       <c r="D20" s="1">
-        <v>-303.626000</v>
+        <v>-303.62599999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>83192.241603</v>
+        <v>83192.241603000002</v>
       </c>
       <c r="G20" s="1">
-        <v>23.108956</v>
+        <v>23.108955999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.228000</v>
+        <v>-262.22800000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>83202.758278</v>
+        <v>83202.758277999994</v>
       </c>
       <c r="L20" s="1">
         <v>23.111877</v>
       </c>
       <c r="M20" s="1">
-        <v>1297.630000</v>
+        <v>1297.6300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.190000</v>
+        <v>-200.19</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>83213.305208</v>
+        <v>83213.305208000005</v>
       </c>
       <c r="Q20" s="1">
-        <v>23.114807</v>
+        <v>23.114806999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1309.410000</v>
+        <v>1309.4100000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-181.962000</v>
+        <v>-181.96199999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>83223.785673</v>
+        <v>83223.785673000006</v>
       </c>
       <c r="V20" s="1">
         <v>23.117718</v>
       </c>
       <c r="W20" s="1">
-        <v>1322.340000</v>
+        <v>1322.34</v>
       </c>
       <c r="X20" s="1">
-        <v>-168.059000</v>
+        <v>-168.059</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>83234.310283</v>
+        <v>83234.310282999999</v>
       </c>
       <c r="AA20" s="1">
         <v>23.120642</v>
       </c>
       <c r="AB20" s="1">
-        <v>1339.070000</v>
+        <v>1339.07</v>
       </c>
       <c r="AC20" s="1">
-        <v>-164.983000</v>
+        <v>-164.983</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>83244.781824</v>
+        <v>83244.781824000005</v>
       </c>
       <c r="AF20" s="1">
-        <v>23.123551</v>
+        <v>23.123550999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AH20" s="1">
-        <v>-173.884000</v>
+        <v>-173.88399999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>83255.315888</v>
+        <v>83255.315887999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>23.126477</v>
+        <v>23.126477000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>1371.220000</v>
+        <v>1371.22</v>
       </c>
       <c r="AM20" s="1">
-        <v>-202.364000</v>
+        <v>-202.364</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>83266.189686</v>
+        <v>83266.189685999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>23.129497</v>
+        <v>23.129497000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1391.910000</v>
+        <v>1391.91</v>
       </c>
       <c r="AR20" s="1">
-        <v>-244.813000</v>
+        <v>-244.81299999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>83277.670050</v>
+        <v>83277.670050000001</v>
       </c>
       <c r="AU20" s="1">
         <v>23.132686</v>
       </c>
       <c r="AV20" s="1">
-        <v>1415.430000</v>
+        <v>1415.43</v>
       </c>
       <c r="AW20" s="1">
-        <v>-303.191000</v>
+        <v>-303.19099999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>83288.524046</v>
+        <v>83288.524046000006</v>
       </c>
       <c r="AZ20" s="1">
-        <v>23.135701</v>
+        <v>23.135701000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1434.110000</v>
+        <v>1434.11</v>
       </c>
       <c r="BB20" s="1">
-        <v>-353.993000</v>
+        <v>-353.99299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>83299.546597</v>
+        <v>83299.546596999993</v>
       </c>
       <c r="BE20" s="1">
-        <v>23.138763</v>
+        <v>23.138763000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1517.380000</v>
+        <v>1517.38</v>
       </c>
       <c r="BG20" s="1">
-        <v>-595.951000</v>
+        <v>-595.95100000000002</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>83310.156519</v>
+        <v>83310.156518999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>23.141710</v>
+        <v>23.14171</v>
       </c>
       <c r="BK20" s="1">
-        <v>1669.250000</v>
+        <v>1669.25</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1028.170000</v>
+        <v>-1028.17</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>83321.022873</v>
+        <v>83321.022872999994</v>
       </c>
       <c r="BO20" s="1">
-        <v>23.144729</v>
+        <v>23.144729000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1958.300000</v>
+        <v>1958.3</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1774.200000</v>
+        <v>-1774.2</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>83332.462106</v>
+        <v>83332.462106000006</v>
       </c>
       <c r="BT20" s="1">
-        <v>23.147906</v>
+        <v>23.147905999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2335.940000</v>
+        <v>2335.94</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2631.480000</v>
+        <v>-2631.48</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>83343.762459</v>
+        <v>83343.762459000005</v>
       </c>
       <c r="BY20" s="1">
         <v>23.151045</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2807.590000</v>
+        <v>2807.59</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3568.940000</v>
+        <v>-3568.94</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>83356.597435</v>
+        <v>83356.597435000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>23.154610</v>
+        <v>23.154610000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>4190.020000</v>
+        <v>4190.0200000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5829.040000</v>
+        <v>-5829.04</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>83182.773471</v>
+        <v>83182.773470999993</v>
       </c>
       <c r="B21" s="1">
-        <v>23.106326</v>
+        <v>23.106325999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1237.320000</v>
+        <v>1237.32</v>
       </c>
       <c r="D21" s="1">
-        <v>-303.653000</v>
+        <v>-303.65300000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>83192.898336</v>
+        <v>83192.898335999998</v>
       </c>
       <c r="G21" s="1">
-        <v>23.109138</v>
+        <v>23.109138000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>1262.710000</v>
+        <v>1262.71</v>
       </c>
       <c r="I21" s="1">
-        <v>-261.432000</v>
+        <v>-261.43200000000002</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>83203.132260</v>
+        <v>83203.132259999998</v>
       </c>
       <c r="L21" s="1">
         <v>23.111981</v>
       </c>
       <c r="M21" s="1">
-        <v>1297.360000</v>
+        <v>1297.3599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.244000</v>
+        <v>-200.244</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>83213.691598</v>
+        <v>83213.691598000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>23.114914</v>
+        <v>23.114913999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1309.340000</v>
+        <v>1309.3399999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-181.945000</v>
+        <v>-181.94499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>83224.129405</v>
       </c>
       <c r="V21" s="1">
-        <v>23.117814</v>
+        <v>23.117813999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1322.320000</v>
+        <v>1322.32</v>
       </c>
       <c r="X21" s="1">
-        <v>-168.177000</v>
+        <v>-168.17699999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>83234.659503</v>
+        <v>83234.659503000003</v>
       </c>
       <c r="AA21" s="1">
         <v>23.120739</v>
       </c>
       <c r="AB21" s="1">
-        <v>1339.070000</v>
+        <v>1339.07</v>
       </c>
       <c r="AC21" s="1">
-        <v>-164.998000</v>
+        <v>-164.99799999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>83245.125587</v>
+        <v>83245.125587000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>23.123646</v>
+        <v>23.123646000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1351.520000</v>
+        <v>1351.52</v>
       </c>
       <c r="AH21" s="1">
-        <v>-173.920000</v>
+        <v>-173.92</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>83255.741951</v>
+        <v>83255.741951000004</v>
       </c>
       <c r="AK21" s="1">
-        <v>23.126595</v>
+        <v>23.126594999999998</v>
       </c>
       <c r="AL21" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="AM21" s="1">
-        <v>-202.386000</v>
+        <v>-202.386</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>83266.909346</v>
@@ -5484,1420 +5900,1421 @@
         <v>23.129697</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1391.880000</v>
+        <v>1391.88</v>
       </c>
       <c r="AR21" s="1">
-        <v>-244.830000</v>
+        <v>-244.83</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>83277.972149</v>
+        <v>83277.972148999994</v>
       </c>
       <c r="AU21" s="1">
-        <v>23.132770</v>
+        <v>23.132770000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1415.420000</v>
+        <v>1415.42</v>
       </c>
       <c r="AW21" s="1">
-        <v>-303.208000</v>
+        <v>-303.20800000000003</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>83288.883139</v>
+        <v>83288.883138999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>23.135801</v>
+        <v>23.135801000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1434.120000</v>
+        <v>1434.12</v>
       </c>
       <c r="BB21" s="1">
-        <v>-353.982000</v>
+        <v>-353.98200000000003</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>83299.911653</v>
+        <v>83299.911653000003</v>
       </c>
       <c r="BE21" s="1">
-        <v>23.138864</v>
+        <v>23.138864000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1517.370000</v>
+        <v>1517.37</v>
       </c>
       <c r="BG21" s="1">
-        <v>-595.959000</v>
+        <v>-595.95899999999995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>83310.528519</v>
       </c>
       <c r="BJ21" s="1">
-        <v>23.141813</v>
+        <v>23.141812999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1669.250000</v>
+        <v>1669.25</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1028.040000</v>
+        <v>-1028.04</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>83321.840281</v>
+        <v>83321.840280999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>23.144956</v>
+        <v>23.144956000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1958.160000</v>
+        <v>1958.16</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1774.100000</v>
+        <v>-1774.1</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>83332.898089</v>
+        <v>83332.898088999995</v>
       </c>
       <c r="BT21" s="1">
-        <v>23.148027</v>
+        <v>23.148026999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>2336.080000</v>
+        <v>2336.08</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2631.150000</v>
+        <v>-2631.15</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>83344.176655</v>
+        <v>83344.176655000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>23.151160</v>
+        <v>23.151160000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2807.710000</v>
+        <v>2807.71</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3569.260000</v>
+        <v>-3569.26</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>83357.115257</v>
+        <v>83357.115256999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>23.154754</v>
+        <v>23.154754000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4180.070000</v>
+        <v>4180.07</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5809.080000</v>
+        <v>-5809.08</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>83183.142991</v>
+        <v>83183.142991000001</v>
       </c>
       <c r="B22" s="1">
-        <v>23.106429</v>
+        <v>23.106428999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-303.818000</v>
+        <v>-303.81799999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>83193.273779</v>
+        <v>83193.273778999996</v>
       </c>
       <c r="G22" s="1">
-        <v>23.109243</v>
+        <v>23.109242999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1262.070000</v>
+        <v>1262.07</v>
       </c>
       <c r="I22" s="1">
-        <v>-261.659000</v>
+        <v>-261.65899999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>83203.477476</v>
       </c>
       <c r="L22" s="1">
-        <v>23.112077</v>
+        <v>23.112076999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1297.540000</v>
+        <v>1297.54</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.094000</v>
+        <v>-200.09399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>83214.038790</v>
+        <v>83214.038790000006</v>
       </c>
       <c r="Q22" s="1">
-        <v>23.115011</v>
+        <v>23.115010999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>1309.330000</v>
+        <v>1309.33</v>
       </c>
       <c r="S22" s="1">
-        <v>-181.892000</v>
+        <v>-181.892</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>83224.478088</v>
+        <v>83224.478088000003</v>
       </c>
       <c r="V22" s="1">
-        <v>23.117911</v>
+        <v>23.117910999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1322.280000</v>
+        <v>1322.28</v>
       </c>
       <c r="X22" s="1">
-        <v>-168.017000</v>
+        <v>-168.017</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>83235.078093</v>
+        <v>83235.078093000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>23.120855</v>
+        <v>23.120854999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1339.150000</v>
+        <v>1339.15</v>
       </c>
       <c r="AC22" s="1">
-        <v>-164.977000</v>
+        <v>-164.977</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>83245.543213</v>
+        <v>83245.543212999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>23.123762</v>
+        <v>23.123761999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1351.500000</v>
+        <v>1351.5</v>
       </c>
       <c r="AH22" s="1">
-        <v>-173.904000</v>
+        <v>-173.904</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>83256.021663</v>
+        <v>83256.021663000007</v>
       </c>
       <c r="AK22" s="1">
         <v>23.126673</v>
       </c>
       <c r="AL22" s="1">
-        <v>1371.220000</v>
+        <v>1371.22</v>
       </c>
       <c r="AM22" s="1">
-        <v>-202.395000</v>
+        <v>-202.39500000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>83267.267456</v>
+        <v>83267.267456000001</v>
       </c>
       <c r="AP22" s="1">
         <v>23.129797</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1391.850000</v>
+        <v>1391.85</v>
       </c>
       <c r="AR22" s="1">
-        <v>-244.799000</v>
+        <v>-244.79900000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>83278.334690</v>
+        <v>83278.334690000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>23.132871</v>
+        <v>23.132871000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1415.450000</v>
+        <v>1415.45</v>
       </c>
       <c r="AW22" s="1">
-        <v>-303.207000</v>
+        <v>-303.20699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>83289.241220</v>
+        <v>83289.241219999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>23.135900</v>
+        <v>23.135899999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1434.100000</v>
+        <v>1434.1</v>
       </c>
       <c r="BB22" s="1">
-        <v>-353.983000</v>
+        <v>-353.983</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>83300.270758</v>
+        <v>83300.270757999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>23.138964</v>
+        <v>23.138964000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1517.410000</v>
+        <v>1517.41</v>
       </c>
       <c r="BG22" s="1">
-        <v>-595.926000</v>
+        <v>-595.92600000000004</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>83311.279958</v>
+        <v>83311.279957999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>23.142022</v>
+        <v>23.142022000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1669.210000</v>
+        <v>1669.21</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1028.110000</v>
+        <v>-1028.1099999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>83322.256455</v>
+        <v>83322.256454999995</v>
       </c>
       <c r="BO22" s="1">
-        <v>23.145071</v>
+        <v>23.145071000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1958.320000</v>
+        <v>1958.32</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1774.180000</v>
+        <v>-1774.18</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>83333.318201</v>
+        <v>83333.318201000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>23.148144</v>
+        <v>23.148143999999998</v>
       </c>
       <c r="BU22" s="1">
-        <v>2336.230000</v>
+        <v>2336.23</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2630.820000</v>
+        <v>-2630.82</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>83344.624042</v>
+        <v>83344.624041999996</v>
       </c>
       <c r="BY22" s="1">
         <v>23.151284</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2808.180000</v>
+        <v>2808.18</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3569.210000</v>
+        <v>-3569.21</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>83357.972841</v>
+        <v>83357.972840999995</v>
       </c>
       <c r="CD22" s="1">
         <v>23.154992</v>
       </c>
       <c r="CE22" s="1">
-        <v>4193.520000</v>
+        <v>4193.5200000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5821.080000</v>
+        <v>-5821.08</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>83183.488206</v>
+        <v>83183.488205999995</v>
       </c>
       <c r="B23" s="1">
-        <v>23.106525</v>
+        <v>23.106525000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1237.460000</v>
+        <v>1237.46</v>
       </c>
       <c r="D23" s="1">
-        <v>-303.616000</v>
+        <v>-303.61599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>83193.617505</v>
+        <v>83193.617505000002</v>
       </c>
       <c r="G23" s="1">
-        <v>23.109338</v>
+        <v>23.109338000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1262.700000</v>
+        <v>1262.7</v>
       </c>
       <c r="I23" s="1">
-        <v>-261.758000</v>
+        <v>-261.75799999999998</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>83203.829635</v>
+        <v>83203.829635000002</v>
       </c>
       <c r="L23" s="1">
-        <v>23.112175</v>
+        <v>23.112175000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1297.670000</v>
+        <v>1297.67</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.201000</v>
+        <v>-200.20099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>83214.454933</v>
+        <v>83214.454933000001</v>
       </c>
       <c r="Q23" s="1">
         <v>23.115126</v>
       </c>
       <c r="R23" s="1">
-        <v>1309.280000</v>
+        <v>1309.28</v>
       </c>
       <c r="S23" s="1">
-        <v>-181.854000</v>
+        <v>-181.85400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>83224.904152</v>
+        <v>83224.904152000003</v>
       </c>
       <c r="V23" s="1">
         <v>23.118029</v>
       </c>
       <c r="W23" s="1">
-        <v>1322.380000</v>
+        <v>1322.38</v>
       </c>
       <c r="X23" s="1">
-        <v>-168.191000</v>
+        <v>-168.191</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>83235.357861</v>
+        <v>83235.357860999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>23.120933</v>
+        <v>23.120933000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1339.130000</v>
+        <v>1339.13</v>
       </c>
       <c r="AC23" s="1">
-        <v>-164.922000</v>
+        <v>-164.922</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>83245.824909</v>
+        <v>83245.824909000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>23.123840</v>
+        <v>23.123840000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1351.560000</v>
+        <v>1351.56</v>
       </c>
       <c r="AH23" s="1">
-        <v>-173.887000</v>
+        <v>-173.887</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>83256.370857</v>
+        <v>83256.370857000002</v>
       </c>
       <c r="AK23" s="1">
-        <v>23.126770</v>
+        <v>23.12677</v>
       </c>
       <c r="AL23" s="1">
-        <v>1371.220000</v>
+        <v>1371.22</v>
       </c>
       <c r="AM23" s="1">
-        <v>-202.406000</v>
+        <v>-202.40600000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>83267.627584</v>
+        <v>83267.627584000002</v>
       </c>
       <c r="AP23" s="1">
         <v>23.129897</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1391.890000</v>
+        <v>1391.89</v>
       </c>
       <c r="AR23" s="1">
-        <v>-244.795000</v>
+        <v>-244.79499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>83278.700737</v>
+        <v>83278.700737000006</v>
       </c>
       <c r="AU23" s="1">
-        <v>23.132972</v>
+        <v>23.132971999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1415.440000</v>
+        <v>1415.44</v>
       </c>
       <c r="AW23" s="1">
-        <v>-303.199000</v>
+        <v>-303.19900000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>83289.961905</v>
+        <v>83289.961905000004</v>
       </c>
       <c r="AZ23" s="1">
         <v>23.136101</v>
       </c>
       <c r="BA23" s="1">
-        <v>1434.110000</v>
+        <v>1434.11</v>
       </c>
       <c r="BB23" s="1">
-        <v>-354.020000</v>
+        <v>-354.02</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>83300.990947</v>
+        <v>83300.990946999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>23.139164</v>
+        <v>23.139164000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1517.390000</v>
+        <v>1517.39</v>
       </c>
       <c r="BG23" s="1">
-        <v>-595.912000</v>
+        <v>-595.91200000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>83311.655937</v>
+        <v>83311.655937000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>23.142127</v>
+        <v>23.142126999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1669.240000</v>
+        <v>1669.24</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1028.130000</v>
+        <v>-1028.1300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>83322.653223</v>
+        <v>83322.653223000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>23.145181</v>
+        <v>23.145181000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1958.310000</v>
+        <v>1958.31</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1774.220000</v>
+        <v>-1774.22</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>83333.742775</v>
+        <v>83333.742775000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>23.148262</v>
+        <v>23.148261999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2336.280000</v>
+        <v>2336.2800000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2630.970000</v>
+        <v>-2630.97</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>83345.360569</v>
+        <v>83345.360568999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>23.151489</v>
+        <v>23.151489000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2807.980000</v>
+        <v>2807.98</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3568.800000</v>
+        <v>-3568.8</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>83358.195545</v>
+        <v>83358.195544999995</v>
       </c>
       <c r="CD23" s="1">
         <v>23.155054</v>
       </c>
       <c r="CE23" s="1">
-        <v>4191.500000</v>
+        <v>4191.5</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5822.770000</v>
+        <v>-5822.77</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>83183.828958</v>
+        <v>83183.828957999998</v>
       </c>
       <c r="B24" s="1">
-        <v>23.106619</v>
+        <v>23.106618999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1237.270000</v>
+        <v>1237.27</v>
       </c>
       <c r="D24" s="1">
-        <v>-303.701000</v>
+        <v>-303.70100000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>83193.962720</v>
+        <v>83193.962719999996</v>
       </c>
       <c r="G24" s="1">
         <v>23.109434</v>
       </c>
       <c r="H24" s="1">
-        <v>1262.610000</v>
+        <v>1262.6099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-262.242000</v>
+        <v>-262.24200000000002</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>83204.252227</v>
+        <v>83204.252227000004</v>
       </c>
       <c r="L24" s="1">
         <v>23.112292</v>
       </c>
       <c r="M24" s="1">
-        <v>1297.590000</v>
+        <v>1297.5899999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.219000</v>
+        <v>-200.21899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>83214.738186</v>
+        <v>83214.738186000002</v>
       </c>
       <c r="Q24" s="1">
         <v>23.115205</v>
       </c>
       <c r="R24" s="1">
-        <v>1309.360000</v>
+        <v>1309.3599999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-181.791000</v>
+        <v>-181.791</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>83225.180425</v>
+        <v>83225.180424999999</v>
       </c>
       <c r="V24" s="1">
-        <v>23.118106</v>
+        <v>23.118106000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1322.250000</v>
+        <v>1322.25</v>
       </c>
       <c r="X24" s="1">
-        <v>-168.208000</v>
+        <v>-168.208</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>83235.705033</v>
+        <v>83235.705033000006</v>
       </c>
       <c r="AA24" s="1">
         <v>23.121029</v>
       </c>
       <c r="AB24" s="1">
-        <v>1339.070000</v>
+        <v>1339.07</v>
       </c>
       <c r="AC24" s="1">
-        <v>-165.074000</v>
+        <v>-165.07400000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>83246.164171</v>
+        <v>83246.164170999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>23.123934</v>
+        <v>23.123933999999998</v>
       </c>
       <c r="AG24" s="1">
-        <v>1351.500000</v>
+        <v>1351.5</v>
       </c>
       <c r="AH24" s="1">
-        <v>-173.831000</v>
+        <v>-173.83099999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>83256.719038</v>
+        <v>83256.719037999996</v>
       </c>
       <c r="AK24" s="1">
         <v>23.126866</v>
       </c>
       <c r="AL24" s="1">
-        <v>1371.240000</v>
+        <v>1371.24</v>
       </c>
       <c r="AM24" s="1">
-        <v>-202.392000</v>
+        <v>-202.392</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>83268.348238</v>
+        <v>83268.348238000006</v>
       </c>
       <c r="AP24" s="1">
-        <v>23.130097</v>
+        <v>23.130096999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1391.860000</v>
+        <v>1391.86</v>
       </c>
       <c r="AR24" s="1">
-        <v>-244.829000</v>
+        <v>-244.82900000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>83279.429893</v>
+        <v>83279.429892999993</v>
       </c>
       <c r="AU24" s="1">
-        <v>23.133175</v>
+        <v>23.133175000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1415.440000</v>
+        <v>1415.44</v>
       </c>
       <c r="AW24" s="1">
-        <v>-303.174000</v>
+        <v>-303.17399999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>83290.340536</v>
+        <v>83290.340536000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>23.136206</v>
+        <v>23.136206000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1434.100000</v>
+        <v>1434.1</v>
       </c>
       <c r="BB24" s="1">
-        <v>-354.003000</v>
+        <v>-354.00299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>83301.355506</v>
+        <v>83301.355506000007</v>
       </c>
       <c r="BE24" s="1">
-        <v>23.139265</v>
+        <v>23.139265000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1517.360000</v>
+        <v>1517.36</v>
       </c>
       <c r="BG24" s="1">
-        <v>-595.951000</v>
+        <v>-595.95100000000002</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>83312.032918</v>
+        <v>83312.032917999997</v>
       </c>
       <c r="BJ24" s="1">
-        <v>23.142231</v>
+        <v>23.142230999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1669.190000</v>
+        <v>1669.19</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1028.080000</v>
+        <v>-1028.08</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>83323.389286</v>
+        <v>83323.389286000005</v>
       </c>
       <c r="BO24" s="1">
-        <v>23.145386</v>
+        <v>23.145385999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1958.330000</v>
+        <v>1958.33</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1774.180000</v>
+        <v>-1774.18</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>83334.468919</v>
+        <v>83334.468919000006</v>
       </c>
       <c r="BT24" s="1">
-        <v>23.148464</v>
+        <v>23.148464000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2336.470000</v>
+        <v>2336.4699999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2630.850000</v>
+        <v>-2630.85</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>83345.472168</v>
+        <v>83345.472167999993</v>
       </c>
       <c r="BY24" s="1">
-        <v>23.151520</v>
+        <v>23.151520000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2807.940000</v>
+        <v>2807.94</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3568.790000</v>
+        <v>-3568.79</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>83358.714855</v>
+        <v>83358.714854999998</v>
       </c>
       <c r="CD24" s="1">
         <v>23.155199</v>
       </c>
       <c r="CE24" s="1">
-        <v>4185.720000</v>
+        <v>4185.72</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5808.890000</v>
+        <v>-5808.89</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>83184.253070</v>
+        <v>83184.253070000006</v>
       </c>
       <c r="B25" s="1">
-        <v>23.106737</v>
+        <v>23.106736999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1237.590000</v>
+        <v>1237.5899999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-303.814000</v>
+        <v>-303.81400000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>83194.398208</v>
+        <v>83194.398207999999</v>
       </c>
       <c r="G25" s="1">
         <v>23.109555</v>
       </c>
       <c r="H25" s="1">
-        <v>1262.450000</v>
+        <v>1262.45</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.125000</v>
+        <v>-262.125</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>83204.532466</v>
+        <v>83204.532466000004</v>
       </c>
       <c r="L25" s="1">
-        <v>23.112370</v>
+        <v>23.112369999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>1297.200000</v>
+        <v>1297.2</v>
       </c>
       <c r="N25" s="1">
-        <v>-199.971000</v>
+        <v>-199.971</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>83215.087334</v>
+        <v>83215.087333999996</v>
       </c>
       <c r="Q25" s="1">
         <v>23.115302</v>
       </c>
       <c r="R25" s="1">
-        <v>1309.320000</v>
+        <v>1309.32</v>
       </c>
       <c r="S25" s="1">
-        <v>-181.872000</v>
+        <v>-181.87200000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>83225.523159</v>
+        <v>83225.523159000004</v>
       </c>
       <c r="V25" s="1">
-        <v>23.118201</v>
+        <v>23.118200999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1322.230000</v>
+        <v>1322.23</v>
       </c>
       <c r="X25" s="1">
-        <v>-167.803000</v>
+        <v>-167.803</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>83236.053225</v>
+        <v>83236.053224999996</v>
       </c>
       <c r="AA25" s="1">
         <v>23.121126</v>
       </c>
       <c r="AB25" s="1">
-        <v>1339.170000</v>
+        <v>1339.17</v>
       </c>
       <c r="AC25" s="1">
-        <v>-164.924000</v>
+        <v>-164.92400000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>83246.509387</v>
+        <v>83246.509386999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>23.124030</v>
+        <v>23.124030000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1351.620000</v>
+        <v>1351.62</v>
       </c>
       <c r="AH25" s="1">
-        <v>-174.036000</v>
+        <v>-174.036</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>83257.415917</v>
+        <v>83257.415917000006</v>
       </c>
       <c r="AK25" s="1">
-        <v>23.127060</v>
+        <v>23.12706</v>
       </c>
       <c r="AL25" s="1">
-        <v>1371.210000</v>
+        <v>1371.21</v>
       </c>
       <c r="AM25" s="1">
-        <v>-202.406000</v>
+        <v>-202.40600000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>83268.733629</v>
+        <v>83268.733628999995</v>
       </c>
       <c r="AP25" s="1">
-        <v>23.130204</v>
+        <v>23.130203999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1391.910000</v>
+        <v>1391.91</v>
       </c>
       <c r="AR25" s="1">
-        <v>-244.814000</v>
+        <v>-244.81399999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>83279.820703</v>
+        <v>83279.820703000005</v>
       </c>
       <c r="AU25" s="1">
         <v>23.133284</v>
       </c>
       <c r="AV25" s="1">
-        <v>1415.440000</v>
+        <v>1415.44</v>
       </c>
       <c r="AW25" s="1">
-        <v>-303.161000</v>
+        <v>-303.161</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>83290.719296</v>
+        <v>83290.719295999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>23.136311</v>
+        <v>23.136310999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1434.100000</v>
+        <v>1434.1</v>
       </c>
       <c r="BB25" s="1">
-        <v>-353.976000</v>
+        <v>-353.976</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>83301.715106</v>
+        <v>83301.715106000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>23.139365</v>
+        <v>23.139365000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1517.390000</v>
+        <v>1517.39</v>
       </c>
       <c r="BG25" s="1">
-        <v>-595.933000</v>
+        <v>-595.93299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>83312.717896</v>
+        <v>83312.717896000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>23.142422</v>
       </c>
       <c r="BK25" s="1">
-        <v>1669.230000</v>
+        <v>1669.23</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1028.050000</v>
+        <v>-1028.05</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>83323.892230</v>
+        <v>83323.892229999998</v>
       </c>
       <c r="BO25" s="1">
         <v>23.145526</v>
       </c>
       <c r="BP25" s="1">
-        <v>1958.120000</v>
+        <v>1958.12</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1774.000000</v>
+        <v>-1774</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>83334.586637</v>
       </c>
       <c r="BT25" s="1">
-        <v>23.148496</v>
+        <v>23.148496000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2336.880000</v>
+        <v>2336.88</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2630.920000</v>
+        <v>-2630.92</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>83345.915098</v>
+        <v>83345.915097999998</v>
       </c>
       <c r="BY25" s="1">
         <v>23.151643</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2807.460000</v>
+        <v>2807.46</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3568.750000</v>
+        <v>-3568.75</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>83359.233670</v>
+        <v>83359.233670000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>23.155343</v>
+        <v>23.155342999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>4171.370000</v>
+        <v>4171.37</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5816.350000</v>
+        <v>-5816.35</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>83184.527854</v>
       </c>
       <c r="B26" s="1">
-        <v>23.106813</v>
+        <v>23.106812999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1237.410000</v>
+        <v>1237.4100000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-303.599000</v>
+        <v>-303.59899999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>83194.659599</v>
+        <v>83194.659599000006</v>
       </c>
       <c r="G26" s="1">
-        <v>23.109628</v>
+        <v>23.109628000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1261.280000</v>
+        <v>1261.28</v>
       </c>
       <c r="I26" s="1">
-        <v>-261.863000</v>
+        <v>-261.863</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>83204.879170</v>
+        <v>83204.87917</v>
       </c>
       <c r="L26" s="1">
-        <v>23.112466</v>
+        <v>23.112466000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>1297.660000</v>
+        <v>1297.6600000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.327000</v>
+        <v>-200.327</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>83215.437546</v>
+        <v>83215.437546000001</v>
       </c>
       <c r="Q26" s="1">
         <v>23.115399</v>
       </c>
       <c r="R26" s="1">
-        <v>1309.310000</v>
+        <v>1309.31</v>
       </c>
       <c r="S26" s="1">
-        <v>-181.932000</v>
+        <v>-181.93199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>83225.867419</v>
+        <v>83225.867419000002</v>
       </c>
       <c r="V26" s="1">
-        <v>23.118297</v>
+        <v>23.118296999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>1321.960000</v>
+        <v>1321.96</v>
       </c>
       <c r="X26" s="1">
-        <v>-168.188000</v>
+        <v>-168.18799999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>83236.752088</v>
+        <v>83236.752087999994</v>
       </c>
       <c r="AA26" s="1">
-        <v>23.121320</v>
+        <v>23.121320000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1339.010000</v>
+        <v>1339.01</v>
       </c>
       <c r="AC26" s="1">
-        <v>-164.645000</v>
+        <v>-164.64500000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>83247.196347</v>
+        <v>83247.196347000005</v>
       </c>
       <c r="AF26" s="1">
-        <v>23.124221</v>
+        <v>23.124220999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1351.510000</v>
+        <v>1351.51</v>
       </c>
       <c r="AH26" s="1">
-        <v>-173.650000</v>
+        <v>-173.65</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>83257.766124</v>
+        <v>83257.766124000002</v>
       </c>
       <c r="AK26" s="1">
         <v>23.127157</v>
       </c>
       <c r="AL26" s="1">
-        <v>1371.230000</v>
+        <v>1371.23</v>
       </c>
       <c r="AM26" s="1">
-        <v>-202.376000</v>
+        <v>-202.376</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>83269.096702</v>
+        <v>83269.096701999995</v>
       </c>
       <c r="AP26" s="1">
         <v>23.130305</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1391.870000</v>
+        <v>1391.87</v>
       </c>
       <c r="AR26" s="1">
-        <v>-244.846000</v>
+        <v>-244.846</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>83280.187743</v>
+        <v>83280.187743000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>23.133385</v>
+        <v>23.133385000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1415.420000</v>
+        <v>1415.42</v>
       </c>
       <c r="AW26" s="1">
-        <v>-303.164000</v>
+        <v>-303.16399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>83291.394351</v>
+        <v>83291.394350999995</v>
       </c>
       <c r="AZ26" s="1">
         <v>23.136498</v>
       </c>
       <c r="BA26" s="1">
-        <v>1434.100000</v>
+        <v>1434.1</v>
       </c>
       <c r="BB26" s="1">
-        <v>-353.999000</v>
+        <v>-353.99900000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>83302.165015</v>
+        <v>83302.165015000006</v>
       </c>
       <c r="BE26" s="1">
-        <v>23.139490</v>
+        <v>23.139489999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1517.350000</v>
+        <v>1517.35</v>
       </c>
       <c r="BG26" s="1">
-        <v>-595.903000</v>
+        <v>-595.90300000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>83313.157315</v>
+        <v>83313.157315000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>23.142544</v>
+        <v>23.142544000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1669.320000</v>
+        <v>1669.32</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1028.170000</v>
+        <v>-1028.17</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>83324.312340</v>
+        <v>83324.312340000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>23.145642</v>
+        <v>23.145641999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1958.250000</v>
+        <v>1958.25</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1774.130000</v>
+        <v>-1774.13</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>83335.027454</v>
+        <v>83335.027453999995</v>
       </c>
       <c r="BT26" s="1">
         <v>23.148619</v>
       </c>
       <c r="BU26" s="1">
-        <v>2336.930000</v>
+        <v>2336.9299999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2630.740000</v>
+        <v>-2630.74</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>83346.346615</v>
+        <v>83346.346615000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>23.151763</v>
+        <v>23.151762999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2808.380000</v>
+        <v>2808.38</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3568.990000</v>
+        <v>-3568.99</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>83359.751989</v>
+        <v>83359.751988999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>23.155487</v>
+        <v>23.155487000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4179.920000</v>
+        <v>4179.92</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5830.310000</v>
+        <v>-5830.31</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>